--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16100" yWindow="400" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="shop" sheetId="1" r:id="rId1"/>
     <sheet name="pictype" sheetId="2" r:id="rId2"/>
     <sheet name="pic" sheetId="3" r:id="rId3"/>
+    <sheet name="msglist" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,27 +120,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应pictype中的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得的金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格（rnb）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag第一行文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag第二行文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pictype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlocked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file</t>
+    <t>display_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,43 +188,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应pictype中的类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得的金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格（rnb）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag第一行文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag第二行文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pictype</t>
+    <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可爱的动物分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁消费金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,35 +216,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>display_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可爱的动物分类</t>
+    <t>stirng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msglist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lack_of_gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币不足</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,19 +683,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -764,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -776,7 +793,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -784,10 +801,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -795,15 +812,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -811,10 +828,10 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -822,7 +839,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -830,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -849,13 +866,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="4" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -868,16 +887,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -888,24 +907,27 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -913,9 +935,9 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="b">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -924,12 +946,12 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="b">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>40</v>
       </c>
     </row>
@@ -938,13 +960,61 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="b">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="shop" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,22 +92,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,14 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,6 +213,130 @@
   </si>
   <si>
     <t>金币不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儒家艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confucianism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunrising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏季日出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海滩风景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photograph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>town</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海滨小镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,19 +783,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -779,32 +879,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -812,42 +913,122 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -865,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -879,7 +1060,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -887,47 +1068,47 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -935,7 +1116,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>1</v>
@@ -946,7 +1130,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="b">
         <v>0</v>
@@ -960,7 +1147,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>0</v>
@@ -984,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -996,25 +1186,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="880" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="shop" sheetId="1" r:id="rId1"/>
-    <sheet name="pictype" sheetId="2" r:id="rId2"/>
-    <sheet name="pic" sheetId="3" r:id="rId3"/>
-    <sheet name="msglist" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId1"/>
+    <sheet name="shop" sheetId="1" r:id="rId2"/>
+    <sheet name="pictype" sheetId="2" r:id="rId3"/>
+    <sheet name="pic" sheetId="3" r:id="rId4"/>
+    <sheet name="msglist" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,6 +338,22 @@
   </si>
   <si>
     <t>pic3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell的像素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pice_slice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,6 +739,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -877,7 +977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -1042,11 +1142,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1170,7 +1270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="5" r:id="rId1"/>
+    <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
     <sheet name="shop" sheetId="1" r:id="rId2"/>
     <sheet name="pictype" sheetId="2" r:id="rId3"/>
     <sheet name="pic" sheetId="3" r:id="rId4"/>
     <sheet name="msglist" sheetId="4" r:id="rId5"/>
+    <sheet name="level" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +355,42 @@
   </si>
   <si>
     <t>cell_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needexp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图片2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图片3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -981,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1144,26 +1181,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1173,14 +1210,17 @@
       <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1190,28 +1230,34 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1221,11 +1267,14 @@
       <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="1" t="b">
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1235,14 +1284,17 @@
       <c r="C6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="1" t="b">
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1252,10 +1304,13 @@
       <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="1" t="b">
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1322,4 +1377,129 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="11620" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
   <si>
     <t>shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,58 @@
   </si>
   <si>
     <t>测试图片3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关奖励金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关奖励经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x130</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,74 +828,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1018,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Project\puzzle\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="11625" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
     <sheet name="shop" sheetId="1" r:id="rId2"/>
     <sheet name="pictype" sheetId="2" r:id="rId3"/>
     <sheet name="pic" sheetId="3" r:id="rId4"/>
-    <sheet name="msglist" sheetId="4" r:id="rId5"/>
-    <sheet name="level" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="msglist" sheetId="4" r:id="rId6"/>
+    <sheet name="level" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <t>shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,135 +216,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>金币不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儒家艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confucianism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunrising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏季日出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海滩风景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photograph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>town</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海滨小镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell的像素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pice_slice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needexp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图片2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图片3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关奖励金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关奖励经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>lack_of_gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金币不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>draing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>儒家艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>confucianism</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sunrising</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏季日出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海滩风景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芬兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photograph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摄影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>town</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海滨小镇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic3</t>
+    <t>sign</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -346,27 +460,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cell的像素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pice_slice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>needexp</t>
+    <t>gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -374,75 +472,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示的名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图片1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图片2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图片3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关奖励金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关奖励经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x130</t>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY 3</t>
+  </si>
+  <si>
+    <t>DAY 4</t>
+  </si>
+  <si>
+    <t>DAY 5</t>
+  </si>
+  <si>
+    <t>DAY 6</t>
+  </si>
+  <si>
+    <t>DAY 7</t>
+  </si>
+  <si>
+    <t>DAY 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +552,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -830,71 +891,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
     <col min="3" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
       <c r="E2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
         <v>94</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -908,10 +969,10 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -925,10 +986,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -942,10 +1003,10 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -959,10 +1020,10 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -976,7 +1037,7 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -998,20 +1059,20 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +1092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1051,7 +1112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1068,7 +1129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1088,7 +1149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1108,7 +1169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1128,7 +1189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -1155,19 +1216,19 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1178,7 +1239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1189,116 +1250,116 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>66</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>70</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>72</v>
-      </c>
-      <c r="B17" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1320,20 +1381,20 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1344,7 +1405,7 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
@@ -1353,7 +1414,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1364,7 +1425,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>43</v>
@@ -1373,7 +1434,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -1381,7 +1442,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -1390,35 +1451,35 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
@@ -1427,18 +1488,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>0</v>
@@ -1460,24 +1521,148 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1485,20 +1670,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1520,17 +1705,17 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1538,15 +1723,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1554,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1562,7 +1747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1570,7 +1755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1578,7 +1763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1586,7 +1771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1594,7 +1779,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1602,7 +1787,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1610,7 +1795,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1618,7 +1803,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="11625" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
     <sheet name="shop" sheetId="1" r:id="rId2"/>
     <sheet name="pictype" sheetId="2" r:id="rId3"/>
     <sheet name="pic" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="sign" sheetId="7" r:id="rId5"/>
     <sheet name="msglist" sheetId="4" r:id="rId6"/>
     <sheet name="level" sheetId="6" r:id="rId7"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
   <si>
     <t>shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,6 +496,18 @@
   </si>
   <si>
     <t>DAY 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片数量估算(并不是实际值)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -889,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -900,14 +912,15 @@
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
     <col min="3" max="4" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="26.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -923,8 +936,11 @@
       <c r="E2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -940,8 +956,11 @@
       <c r="E3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>79</v>
       </c>
@@ -954,8 +973,11 @@
       <c r="E4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -971,8 +993,11 @@
       <c r="E5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -988,8 +1013,11 @@
       <c r="E6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1005,8 +1033,11 @@
       <c r="E7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1022,8 +1053,11 @@
       <c r="E8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1038,11 +1072,15 @@
       </c>
       <c r="E9" t="s">
         <v>103</v>
+      </c>
+      <c r="F9" s="1">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1523,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="11625" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
@@ -903,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1683,9 +1683,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1716,11 +1716,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>104</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>46</v>
       </c>
     </row>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Project\puzzle\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="11620" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
   <si>
     <t>shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,6 +503,14 @@
   </si>
   <si>
     <t>切片数量估算(并不是实际值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论即送40金币!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +567,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -907,20 +910,20 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="26.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -940,7 +943,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -960,7 +963,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
         <v>79</v>
       </c>
@@ -977,7 +980,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1080,7 +1083,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1097,20 +1100,20 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="1" max="2" width="11" style="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -1254,19 +1257,19 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1288,12 +1291,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="C4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1419,20 +1422,20 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1565,17 +1568,17 @@
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>107</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1608,7 +1611,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1619,7 +1622,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1677,30 +1680,35 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1708,7 +1716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1716,17 +1724,26 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1743,17 +1760,17 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="1" max="2" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1761,7 +1778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -1769,7 +1786,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1777,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1785,7 +1802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1793,7 +1810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1801,7 +1818,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1809,7 +1826,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1817,7 +1834,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1825,7 +1842,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1833,7 +1850,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1841,7 +1858,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>10</v>
       </c>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Project\puzzle\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\彭智园\Desktop\图片和excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="390" yWindow="-90" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="msglist" sheetId="4" r:id="rId6"/>
     <sheet name="level" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="228">
   <si>
     <t>shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可爱的动物分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>解锁消费金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,275 +236,622 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>名画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confucianism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunrising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏季日出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海滩风景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photograph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>town</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海滨小镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell的像素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pice_slice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needexp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图片2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图片3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关奖励金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关奖励经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lack_of_gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY 3</t>
+  </si>
+  <si>
+    <t>DAY 4</t>
+  </si>
+  <si>
+    <t>DAY 5</t>
+  </si>
+  <si>
+    <t>DAY 6</t>
+  </si>
+  <si>
+    <t>DAY 7</t>
+  </si>
+  <si>
+    <t>DAY 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片数量估算(并不是实际值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论即送40金币!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像素艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移轴摄影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲近大自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小动物萌翻天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>人类辉煌的建筑奇迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界顶级名画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣赏不一样的艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感受阳光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一样的海风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣赏世界名车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感受不同色彩带来的视觉盛宴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色大海，让人窒息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体验异国风情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型般的感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾听海风的声音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ani1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ani2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ani3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图片4</t>
+  </si>
+  <si>
+    <t>测试图片5</t>
+  </si>
+  <si>
+    <t>测试图片6</t>
+  </si>
+  <si>
+    <t>测试图片7</t>
+  </si>
+  <si>
+    <t>测试图片8</t>
+  </si>
+  <si>
+    <t>测试图片9</t>
+  </si>
+  <si>
+    <t>测试图片10</t>
+  </si>
+  <si>
+    <t>测试图片11</t>
+  </si>
+  <si>
+    <t>测试图片12</t>
+  </si>
+  <si>
+    <t>测试图片13</t>
+  </si>
+  <si>
+    <t>测试图片14</t>
+  </si>
+  <si>
+    <t>测试图片15</t>
+  </si>
+  <si>
+    <t>测试图片16</t>
+  </si>
+  <si>
+    <t>测试图片17</t>
+  </si>
+  <si>
+    <t>测试图片18</t>
+  </si>
+  <si>
+    <t>测试图片19</t>
+  </si>
+  <si>
+    <t>测试图片20</t>
+  </si>
+  <si>
+    <t>测试图片21</t>
+  </si>
+  <si>
+    <t>测试图片22</t>
+  </si>
+  <si>
+    <t>测试图片23</t>
+  </si>
+  <si>
+    <t>测试图片24</t>
+  </si>
+  <si>
+    <t>测试图片25</t>
+  </si>
+  <si>
+    <t>测试图片26</t>
+  </si>
+  <si>
+    <t>测试图片27</t>
+  </si>
+  <si>
+    <t>测试图片28</t>
+  </si>
+  <si>
+    <t>测试图片29</t>
+  </si>
+  <si>
+    <t>ani4</t>
+  </si>
+  <si>
+    <t>ani5</t>
+  </si>
+  <si>
+    <t>ani6</t>
+  </si>
+  <si>
+    <t>ani7</t>
+  </si>
+  <si>
+    <t>ani8</t>
+  </si>
+  <si>
+    <t>ani9</t>
+  </si>
+  <si>
+    <t>ani10</t>
+  </si>
+  <si>
+    <t>ani11</t>
+  </si>
+  <si>
+    <t>ani12</t>
+  </si>
+  <si>
+    <t>ani13</t>
+  </si>
+  <si>
+    <t>ani14</t>
+  </si>
+  <si>
+    <t>na1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>na2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>na3</t>
+  </si>
+  <si>
+    <t>na4</t>
+  </si>
+  <si>
+    <t>na5</t>
+  </si>
+  <si>
+    <t>na6</t>
+  </si>
+  <si>
+    <t>na7</t>
+  </si>
+  <si>
+    <t>na8</t>
+  </si>
+  <si>
+    <t>na9</t>
+  </si>
+  <si>
+    <t>na10</t>
+  </si>
+  <si>
+    <t>na11</t>
+  </si>
+  <si>
+    <t>na12</t>
+  </si>
+  <si>
+    <t>na13</t>
+  </si>
+  <si>
+    <t>na14</t>
+  </si>
+  <si>
+    <t>na15</t>
+  </si>
+  <si>
+    <t>na16</t>
+  </si>
+  <si>
+    <t>na17</t>
+  </si>
+  <si>
+    <t>na18</t>
+  </si>
+  <si>
+    <t>na19</t>
+  </si>
+  <si>
+    <t>na20</t>
+  </si>
+  <si>
+    <t>测试图片30</t>
+  </si>
+  <si>
+    <t>测试图片31</t>
+  </si>
+  <si>
+    <t>测试图片32</t>
+  </si>
+  <si>
+    <t>测试图片33</t>
+  </si>
+  <si>
+    <t>测试图片34</t>
+  </si>
+  <si>
     <t>building</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu3</t>
+  </si>
+  <si>
+    <t>bu4</t>
+  </si>
+  <si>
+    <t>bu5</t>
+  </si>
+  <si>
+    <t>bu6</t>
+  </si>
+  <si>
+    <t>bu7</t>
+  </si>
+  <si>
+    <t>bu8</t>
+  </si>
+  <si>
+    <t>bu9</t>
+  </si>
+  <si>
+    <t>bu10</t>
+  </si>
+  <si>
+    <t>测试图片35</t>
+  </si>
+  <si>
+    <t>测试图片36</t>
+  </si>
+  <si>
+    <t>测试图片37</t>
+  </si>
+  <si>
+    <t>测试图片38</t>
+  </si>
+  <si>
+    <t>测试图片39</t>
+  </si>
+  <si>
+    <t>测试图片40</t>
+  </si>
+  <si>
+    <t>测试图片41</t>
+  </si>
+  <si>
+    <t>测试图片42</t>
+  </si>
+  <si>
+    <t>测试图片43</t>
+  </si>
+  <si>
+    <t>测试图片44</t>
+  </si>
+  <si>
     <t>draing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>儒家艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>confucianism</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sunrising</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏季日出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海滩风景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芬兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photograph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摄影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>town</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海滨小镇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell的像素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pice_slice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>needexp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示的名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图片1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图片2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图片3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关奖励金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关奖励经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lack_of_gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAY 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAY 3</t>
-  </si>
-  <si>
-    <t>DAY 4</t>
-  </si>
-  <si>
-    <t>DAY 5</t>
-  </si>
-  <si>
-    <t>DAY 6</t>
-  </si>
-  <si>
-    <t>DAY 7</t>
-  </si>
-  <si>
-    <t>DAY 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切片数量估算(并不是实际值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>draing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dra1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dra2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dra3</t>
+  </si>
+  <si>
+    <t>dra4</t>
+  </si>
+  <si>
+    <t>测试图片45</t>
+  </si>
+  <si>
+    <t>测试图片46</t>
+  </si>
+  <si>
+    <t>测试图片47</t>
+  </si>
+  <si>
+    <t>测试图片48</t>
   </si>
 </sst>
 </file>
@@ -904,7 +1247,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -912,12 +1255,12 @@
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
     <col min="3" max="4" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="26.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -925,19 +1268,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -945,36 +1288,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -991,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F5" s="1">
         <v>15</v>
@@ -1011,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1031,7 +1374,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F7" s="1">
         <v>48</v>
@@ -1051,7 +1394,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F8" s="1">
         <v>70</v>
@@ -1071,7 +1414,7 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F9" s="1">
         <v>130</v>
@@ -1080,7 +1423,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1094,12 +1437,12 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="1" max="2" width="11" style="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
@@ -1251,14 +1594,14 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="61.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -1295,109 +1638,145 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1413,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1437,19 +1816,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1463,13 +1842,13 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1480,13 +1859,13 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1494,13 +1873,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>1</v>
@@ -1511,13 +1890,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
@@ -1531,18 +1910,915 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" t="s">
+        <v>215</v>
+      </c>
+      <c r="E46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1562,39 +2838,39 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="D20" sqref="D20:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="2" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1605,7 +2881,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1616,7 +2892,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1627,7 +2903,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -1638,7 +2914,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1649,7 +2925,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1660,7 +2936,7 @@
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -1671,22 +2947,27 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1697,7 +2978,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1713,20 +2994,29 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1740,17 +3030,17 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="1" max="2" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1763,10 +3053,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\彭智园\Desktop\图片和excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Project\puzzle\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="-90" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="-90" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
@@ -396,26 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lack_of_gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -852,6 +832,26 @@
   </si>
   <si>
     <t>测试图片48</t>
+  </si>
+  <si>
+    <t>x25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1280,7 +1280,7 @@
         <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1300,7 +1300,7 @@
         <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1317,7 +1317,7 @@
         <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1325,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1334,10 +1334,10 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="F5" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1345,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1354,10 +1354,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="F6" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1365,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -1374,10 +1374,10 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="F7" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1385,7 +1385,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -1394,10 +1394,10 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="F8" s="1">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1405,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -1414,16 +1414,16 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="F9" s="1">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1593,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1644,7 +1644,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1655,29 +1655,29 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1685,10 +1685,10 @@
         <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1699,7 +1699,7 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -1710,7 +1710,7 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1721,7 +1721,7 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -1732,7 +1732,7 @@
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -1743,7 +1743,7 @@
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -1754,7 +1754,7 @@
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -1762,10 +1762,10 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -1776,7 +1776,7 @@
         <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1794,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -1876,7 +1876,7 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
@@ -1893,7 +1893,7 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
         <v>81</v>
@@ -1913,7 +1913,7 @@
         <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
         <v>82</v>
@@ -1933,10 +1933,10 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E8" s="1" t="b">
         <v>0</v>
@@ -1953,10 +1953,10 @@
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E9" s="1" t="b">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1" t="b">
         <v>0</v>
@@ -1993,10 +1993,10 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E11" s="1" t="b">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1" t="b">
         <v>0</v>
@@ -2033,10 +2033,10 @@
         <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E13" s="1" t="b">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E14" s="1" t="b">
         <v>0</v>
@@ -2073,10 +2073,10 @@
         <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E15" s="1" t="b">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E16" s="1" t="b">
         <v>0</v>
@@ -2113,10 +2113,10 @@
         <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>0</v>
@@ -2133,10 +2133,10 @@
         <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E18" s="1" t="b">
         <v>0</v>
@@ -2150,13 +2150,13 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E19" s="1" t="b">
         <v>1</v>
@@ -2167,13 +2167,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>0</v>
@@ -2187,13 +2187,13 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E21" s="1" t="b">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E22" s="1" t="b">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E23" s="1" t="b">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E24" s="1" t="b">
         <v>0</v>
@@ -2267,13 +2267,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E25" s="1" t="b">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E26" s="1" t="b">
         <v>0</v>
@@ -2307,13 +2307,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E27" s="1" t="b">
         <v>0</v>
@@ -2327,13 +2327,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E28" s="1" t="b">
         <v>0</v>
@@ -2347,13 +2347,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E29" s="1" t="b">
         <v>0</v>
@@ -2367,13 +2367,13 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E30" s="1" t="b">
         <v>0</v>
@@ -2387,13 +2387,13 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E31" s="1" t="b">
         <v>0</v>
@@ -2407,13 +2407,13 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E32" s="1" t="b">
         <v>0</v>
@@ -2427,13 +2427,13 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E33" s="1" t="b">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" t="s">
         <v>186</v>
-      </c>
-      <c r="D34" t="s">
-        <v>191</v>
       </c>
       <c r="E34" s="1" t="b">
         <v>0</v>
@@ -2467,13 +2467,13 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
         <v>187</v>
-      </c>
-      <c r="D35" t="s">
-        <v>192</v>
       </c>
       <c r="E35" s="1" t="b">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" t="s">
         <v>188</v>
-      </c>
-      <c r="D36" t="s">
-        <v>193</v>
       </c>
       <c r="E36" s="1" t="b">
         <v>0</v>
@@ -2507,13 +2507,13 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" t="s">
         <v>189</v>
-      </c>
-      <c r="D37" t="s">
-        <v>194</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" t="s">
         <v>190</v>
-      </c>
-      <c r="D38" t="s">
-        <v>195</v>
       </c>
       <c r="E38" s="1" t="b">
         <v>0</v>
@@ -2547,13 +2547,13 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E39" s="1" t="b">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>0</v>
@@ -2587,13 +2587,13 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D41" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E41" s="1" t="b">
         <v>0</v>
@@ -2607,13 +2607,13 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D42" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E42" s="1" t="b">
         <v>0</v>
@@ -2627,13 +2627,13 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" t="s">
         <v>197</v>
       </c>
-      <c r="C43" t="s">
-        <v>202</v>
-      </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E43" s="1" t="b">
         <v>0</v>
@@ -2647,13 +2647,13 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C44" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E44" s="1" t="b">
         <v>0</v>
@@ -2667,13 +2667,13 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E45" s="1" t="b">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C46" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D46" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E46" s="1" t="b">
         <v>0</v>
@@ -2707,13 +2707,13 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C47" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E47" s="1" t="b">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D48" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E48" s="1" t="b">
         <v>0</v>
@@ -2747,13 +2747,13 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" t="s">
         <v>219</v>
-      </c>
-      <c r="C49" t="s">
-        <v>220</v>
-      </c>
-      <c r="D49" t="s">
-        <v>224</v>
       </c>
       <c r="E49" s="1" t="b">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E50" s="1" t="b">
         <v>0</v>
@@ -2787,13 +2787,13 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E51" s="1" t="b">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C52" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D52" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E52" s="1" t="b">
         <v>0</v>
@@ -2848,29 +2848,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -2881,7 +2881,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -2892,7 +2892,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -2903,7 +2903,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -2914,7 +2914,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -2925,7 +2925,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2936,7 +2936,7 @@
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -2947,7 +2947,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -3007,10 +3007,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Project\puzzle\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="-90" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="300" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="353">
   <si>
     <t>shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,621 +239,1007 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>夏季日出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海滩风景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell的像素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pice_slice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needexp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图片1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图片2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图片3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关奖励金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关奖励经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lack_of_gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAY 3</t>
+  </si>
+  <si>
+    <t>DAY 4</t>
+  </si>
+  <si>
+    <t>DAY 5</t>
+  </si>
+  <si>
+    <t>DAY 6</t>
+  </si>
+  <si>
+    <t>DAY 7</t>
+  </si>
+  <si>
+    <t>DAY 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片数量估算(并不是实际值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论即送40金币!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移轴摄影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲近大自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小动物萌翻天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>人类辉煌的建筑奇迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界顶级名画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣赏不一样的艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感受阳光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一样的海风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣赏世界名车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感受不同色彩带来的视觉盛宴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色大海，让人窒息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型般的感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图片4</t>
+  </si>
+  <si>
+    <t>测试图片5</t>
+  </si>
+  <si>
+    <t>测试图片6</t>
+  </si>
+  <si>
+    <t>测试图片7</t>
+  </si>
+  <si>
+    <t>测试图片8</t>
+  </si>
+  <si>
+    <t>测试图片9</t>
+  </si>
+  <si>
+    <t>测试图片10</t>
+  </si>
+  <si>
+    <t>测试图片15</t>
+  </si>
+  <si>
+    <t>测试图片16</t>
+  </si>
+  <si>
+    <t>测试图片17</t>
+  </si>
+  <si>
+    <t>测试图片18</t>
+  </si>
+  <si>
+    <t>测试图片19</t>
+  </si>
+  <si>
+    <t>测试图片20</t>
+  </si>
+  <si>
+    <t>测试图片21</t>
+  </si>
+  <si>
+    <t>测试图片22</t>
+  </si>
+  <si>
+    <t>测试图片23</t>
+  </si>
+  <si>
+    <t>测试图片24</t>
+  </si>
+  <si>
+    <t>na1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>na2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>na3</t>
+  </si>
+  <si>
+    <t>na4</t>
+  </si>
+  <si>
+    <t>na5</t>
+  </si>
+  <si>
+    <t>na6</t>
+  </si>
+  <si>
+    <t>na7</t>
+  </si>
+  <si>
+    <t>na8</t>
+  </si>
+  <si>
+    <t>na9</t>
+  </si>
+  <si>
+    <t>na10</t>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu3</t>
+  </si>
+  <si>
+    <t>bu4</t>
+  </si>
+  <si>
+    <t>bu5</t>
+  </si>
+  <si>
+    <t>bu6</t>
+  </si>
+  <si>
+    <t>bu7</t>
+  </si>
+  <si>
+    <t>bu8</t>
+  </si>
+  <si>
+    <t>bu9</t>
+  </si>
+  <si>
+    <t>bu10</t>
+  </si>
+  <si>
+    <t>测试图片35</t>
+  </si>
+  <si>
+    <t>测试图片36</t>
+  </si>
+  <si>
+    <t>测试图片37</t>
+  </si>
+  <si>
+    <t>测试图片38</t>
+  </si>
+  <si>
+    <t>测试图片39</t>
+  </si>
+  <si>
+    <t>测试图片40</t>
+  </si>
+  <si>
+    <t>测试图片41</t>
+  </si>
+  <si>
+    <t>测试图片42</t>
+  </si>
+  <si>
+    <t>测试图片43</t>
+  </si>
+  <si>
+    <t>测试图片44</t>
+  </si>
+  <si>
+    <t>draing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图片45</t>
+  </si>
+  <si>
+    <t>测试图片46</t>
+  </si>
+  <si>
+    <t>测试图片47</t>
+  </si>
+  <si>
+    <t>测试图片48</t>
+  </si>
+  <si>
+    <t>x25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim2</t>
+  </si>
+  <si>
+    <t>anim3</t>
+  </si>
+  <si>
+    <t>anim4</t>
+  </si>
+  <si>
+    <t>anim5</t>
+  </si>
+  <si>
+    <t>anim6</t>
+  </si>
+  <si>
+    <t>anim7</t>
+  </si>
+  <si>
+    <t>anim8</t>
+  </si>
+  <si>
+    <t>anim9</t>
+  </si>
+  <si>
+    <t>anim10</t>
+  </si>
+  <si>
+    <t>pic1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic2</t>
+  </si>
+  <si>
+    <t>pic3</t>
+  </si>
+  <si>
+    <t>pic4</t>
+  </si>
+  <si>
+    <t>pic5</t>
+  </si>
+  <si>
+    <t>pic6</t>
+  </si>
+  <si>
+    <t>pic7</t>
+  </si>
+  <si>
+    <t>pic8</t>
+  </si>
+  <si>
+    <t>pic9</t>
+  </si>
+  <si>
+    <t>pic10</t>
+  </si>
+  <si>
+    <t>测试图片49</t>
+  </si>
+  <si>
+    <t>测试图片50</t>
+  </si>
+  <si>
+    <t>测试图片51</t>
+  </si>
+  <si>
+    <t>测试图片52</t>
+  </si>
+  <si>
+    <t>测试图片53</t>
+  </si>
+  <si>
+    <t>测试图片54</t>
+  </si>
+  <si>
+    <t>confucianism</t>
+  </si>
+  <si>
+    <t>马赛克艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msk3</t>
+  </si>
+  <si>
+    <t>msk4</t>
+  </si>
+  <si>
+    <t>msk5</t>
+  </si>
+  <si>
+    <t>msk6</t>
+  </si>
+  <si>
+    <t>msk7</t>
+  </si>
+  <si>
+    <t>msk8</t>
+  </si>
+  <si>
+    <t>msk9</t>
+  </si>
+  <si>
+    <t>msk10</t>
+  </si>
+  <si>
+    <t>测试图片55</t>
+  </si>
+  <si>
+    <t>测试图片56</t>
+  </si>
+  <si>
+    <t>测试图片57</t>
+  </si>
+  <si>
+    <t>测试图片58</t>
+  </si>
+  <si>
+    <t>测试图片59</t>
+  </si>
+  <si>
+    <t>测试图片60</t>
+  </si>
+  <si>
+    <t>测试图片61</t>
+  </si>
+  <si>
+    <t>测试图片62</t>
+  </si>
+  <si>
+    <t>测试图片63</t>
+  </si>
+  <si>
+    <t>测试图片64</t>
+  </si>
+  <si>
     <t>sunrising</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>夏季日出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>sunrising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum3</t>
+  </si>
+  <si>
+    <t>sum4</t>
+  </si>
+  <si>
+    <t>sum5</t>
+  </si>
+  <si>
+    <t>sum6</t>
+  </si>
+  <si>
+    <t>sum7</t>
+  </si>
+  <si>
+    <t>sum8</t>
+  </si>
+  <si>
+    <t>sum9</t>
+  </si>
+  <si>
+    <t>sum10</t>
+  </si>
+  <si>
+    <t>测试图片65</t>
+  </si>
+  <si>
+    <t>测试图片66</t>
+  </si>
+  <si>
+    <t>测试图片67</t>
+  </si>
+  <si>
+    <t>测试图片68</t>
+  </si>
+  <si>
+    <t>测试图片69</t>
+  </si>
+  <si>
+    <t>测试图片70</t>
+  </si>
+  <si>
+    <t>测试图片71</t>
+  </si>
+  <si>
+    <t>测试图片72</t>
+  </si>
+  <si>
+    <t>测试图片73</t>
+  </si>
+  <si>
+    <t>测试图片74</t>
   </si>
   <si>
     <t>beach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海滩风景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>beach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bh3</t>
+  </si>
+  <si>
+    <t>bh4</t>
+  </si>
+  <si>
+    <t>bh5</t>
+  </si>
+  <si>
+    <t>bh6</t>
+  </si>
+  <si>
+    <t>bh7</t>
+  </si>
+  <si>
+    <t>bh8</t>
+  </si>
+  <si>
+    <t>bh9</t>
+  </si>
+  <si>
+    <t>bh10</t>
+  </si>
+  <si>
+    <t>测试图片75</t>
+  </si>
+  <si>
+    <t>测试图片76</t>
+  </si>
+  <si>
+    <t>测试图片77</t>
+  </si>
+  <si>
+    <t>测试图片78</t>
+  </si>
+  <si>
+    <t>测试图片79</t>
+  </si>
+  <si>
+    <t>测试图片80</t>
+  </si>
+  <si>
+    <t>测试图片81</t>
+  </si>
+  <si>
+    <t>测试图片82</t>
+  </si>
+  <si>
+    <t>测试图片83</t>
+  </si>
+  <si>
+    <t>测试图片84</t>
   </si>
   <si>
     <t>car</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>car1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car3</t>
+  </si>
+  <si>
+    <t>car4</t>
+  </si>
+  <si>
+    <t>car5</t>
+  </si>
+  <si>
+    <t>car6</t>
+  </si>
+  <si>
+    <t>car7</t>
+  </si>
+  <si>
+    <t>car8</t>
+  </si>
+  <si>
+    <t>car9</t>
+  </si>
+  <si>
+    <t>car10</t>
+  </si>
+  <si>
+    <t>测试图片85</t>
+  </si>
+  <si>
+    <t>测试图片86</t>
+  </si>
+  <si>
+    <t>测试图片87</t>
+  </si>
+  <si>
+    <t>测试图片88</t>
+  </si>
+  <si>
+    <t>测试图片89</t>
+  </si>
+  <si>
+    <t>测试图片90</t>
+  </si>
+  <si>
+    <t>测试图片91</t>
+  </si>
+  <si>
+    <t>测试图片92</t>
+  </si>
+  <si>
+    <t>测试图片93</t>
+  </si>
+  <si>
+    <t>测试图片94</t>
   </si>
   <si>
     <t>color</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>色彩艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co3</t>
+  </si>
+  <si>
+    <t>co4</t>
+  </si>
+  <si>
+    <t>co5</t>
+  </si>
+  <si>
+    <t>co6</t>
+  </si>
+  <si>
+    <t>co7</t>
+  </si>
+  <si>
+    <t>co8</t>
+  </si>
+  <si>
+    <t>co9</t>
+  </si>
+  <si>
+    <t>co10</t>
+  </si>
+  <si>
+    <t>测试图片95</t>
+  </si>
+  <si>
+    <t>测试图片96</t>
+  </si>
+  <si>
+    <t>测试图片97</t>
+  </si>
+  <si>
+    <t>测试图片98</t>
+  </si>
+  <si>
+    <t>测试图片99</t>
+  </si>
+  <si>
+    <t>测试图片100</t>
+  </si>
+  <si>
+    <t>测试图片101</t>
+  </si>
+  <si>
+    <t>测试图片102</t>
+  </si>
+  <si>
+    <t>测试图片103</t>
+  </si>
+  <si>
+    <t>测试图片104</t>
   </si>
   <si>
     <t>sea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海底世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芬兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>sea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea3</t>
+  </si>
+  <si>
+    <t>sea4</t>
+  </si>
+  <si>
+    <t>sea5</t>
+  </si>
+  <si>
+    <t>sea6</t>
+  </si>
+  <si>
+    <t>sea7</t>
+  </si>
+  <si>
+    <t>sea8</t>
+  </si>
+  <si>
+    <t>sea9</t>
+  </si>
+  <si>
+    <t>sea10</t>
+  </si>
+  <si>
+    <t>测试图片105</t>
+  </si>
+  <si>
+    <t>测试图片106</t>
+  </si>
+  <si>
+    <t>测试图片107</t>
+  </si>
+  <si>
+    <t>测试图片108</t>
+  </si>
+  <si>
+    <t>测试图片109</t>
+  </si>
+  <si>
+    <t>测试图片110</t>
+  </si>
+  <si>
+    <t>测试图片111</t>
+  </si>
+  <si>
+    <t>测试图片112</t>
+  </si>
+  <si>
+    <t>测试图片113</t>
+  </si>
+  <si>
+    <t>测试图片114</t>
   </si>
   <si>
     <t>photograph</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>town</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海滨小镇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell的像素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pice_slice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>needexp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示的名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图片1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图片2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图片3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关奖励金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关奖励经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lack_of_gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAY 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAY 3</t>
-  </si>
-  <si>
-    <t>DAY 4</t>
-  </si>
-  <si>
-    <t>DAY 5</t>
-  </si>
-  <si>
-    <t>DAY 6</t>
-  </si>
-  <si>
-    <t>DAY 7</t>
-  </si>
-  <si>
-    <t>DAY 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切片数量估算(并不是实际值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论即送40金币!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>像素艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移轴摄影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲近大自然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小动物萌翻天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nature</t>
-  </si>
-  <si>
-    <t>人类辉煌的建筑奇迹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界顶级名画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣赏不一样的艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感受阳光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不一样的海风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣赏世界名车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感受不同色彩带来的视觉盛宴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色大海，让人窒息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体验异国风情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型般的感觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倾听海风的声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ani1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ani2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ani3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图片4</t>
-  </si>
-  <si>
-    <t>测试图片5</t>
-  </si>
-  <si>
-    <t>测试图片6</t>
-  </si>
-  <si>
-    <t>测试图片7</t>
-  </si>
-  <si>
-    <t>测试图片8</t>
-  </si>
-  <si>
-    <t>测试图片9</t>
-  </si>
-  <si>
-    <t>测试图片10</t>
-  </si>
-  <si>
-    <t>测试图片11</t>
-  </si>
-  <si>
-    <t>测试图片12</t>
-  </si>
-  <si>
-    <t>测试图片13</t>
-  </si>
-  <si>
-    <t>测试图片14</t>
-  </si>
-  <si>
-    <t>测试图片15</t>
-  </si>
-  <si>
-    <t>测试图片16</t>
-  </si>
-  <si>
-    <t>测试图片17</t>
-  </si>
-  <si>
-    <t>测试图片18</t>
-  </si>
-  <si>
-    <t>测试图片19</t>
-  </si>
-  <si>
-    <t>测试图片20</t>
-  </si>
-  <si>
-    <t>测试图片21</t>
-  </si>
-  <si>
-    <t>测试图片22</t>
-  </si>
-  <si>
-    <t>测试图片23</t>
-  </si>
-  <si>
-    <t>测试图片24</t>
-  </si>
-  <si>
-    <t>测试图片25</t>
-  </si>
-  <si>
-    <t>测试图片26</t>
-  </si>
-  <si>
-    <t>测试图片27</t>
-  </si>
-  <si>
-    <t>测试图片28</t>
-  </si>
-  <si>
-    <t>测试图片29</t>
-  </si>
-  <si>
-    <t>ani4</t>
-  </si>
-  <si>
-    <t>ani5</t>
-  </si>
-  <si>
-    <t>ani6</t>
-  </si>
-  <si>
-    <t>ani7</t>
-  </si>
-  <si>
-    <t>ani8</t>
-  </si>
-  <si>
-    <t>ani9</t>
-  </si>
-  <si>
-    <t>ani10</t>
-  </si>
-  <si>
-    <t>ani11</t>
-  </si>
-  <si>
-    <t>ani12</t>
-  </si>
-  <si>
-    <t>ani13</t>
-  </si>
-  <si>
-    <t>ani14</t>
-  </si>
-  <si>
-    <t>na1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na3</t>
-  </si>
-  <si>
-    <t>na4</t>
-  </si>
-  <si>
-    <t>na5</t>
-  </si>
-  <si>
-    <t>na6</t>
-  </si>
-  <si>
-    <t>na7</t>
-  </si>
-  <si>
-    <t>na8</t>
-  </si>
-  <si>
-    <t>na9</t>
-  </si>
-  <si>
-    <t>na10</t>
-  </si>
-  <si>
-    <t>na11</t>
-  </si>
-  <si>
-    <t>na12</t>
-  </si>
-  <si>
-    <t>na13</t>
-  </si>
-  <si>
-    <t>na14</t>
-  </si>
-  <si>
-    <t>na15</t>
-  </si>
-  <si>
-    <t>na16</t>
-  </si>
-  <si>
-    <t>na17</t>
-  </si>
-  <si>
-    <t>na18</t>
-  </si>
-  <si>
-    <t>na19</t>
-  </si>
-  <si>
-    <t>na20</t>
-  </si>
-  <si>
-    <t>测试图片30</t>
-  </si>
-  <si>
-    <t>测试图片31</t>
-  </si>
-  <si>
-    <t>测试图片32</t>
-  </si>
-  <si>
-    <t>测试图片33</t>
-  </si>
-  <si>
-    <t>测试图片34</t>
-  </si>
-  <si>
-    <t>building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu3</t>
-  </si>
-  <si>
-    <t>bu4</t>
-  </si>
-  <si>
-    <t>bu5</t>
-  </si>
-  <si>
-    <t>bu6</t>
-  </si>
-  <si>
-    <t>bu7</t>
-  </si>
-  <si>
-    <t>bu8</t>
-  </si>
-  <si>
-    <t>bu9</t>
-  </si>
-  <si>
-    <t>bu10</t>
-  </si>
-  <si>
-    <t>测试图片35</t>
-  </si>
-  <si>
-    <t>测试图片36</t>
-  </si>
-  <si>
-    <t>测试图片37</t>
-  </si>
-  <si>
-    <t>测试图片38</t>
-  </si>
-  <si>
-    <t>测试图片39</t>
-  </si>
-  <si>
-    <t>测试图片40</t>
-  </si>
-  <si>
-    <t>测试图片41</t>
-  </si>
-  <si>
-    <t>测试图片42</t>
-  </si>
-  <si>
-    <t>测试图片43</t>
-  </si>
-  <si>
-    <t>测试图片44</t>
-  </si>
-  <si>
-    <t>draing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>draing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dra1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dra2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dra3</t>
-  </si>
-  <si>
-    <t>dra4</t>
-  </si>
-  <si>
-    <t>测试图片45</t>
-  </si>
-  <si>
-    <t>测试图片46</t>
-  </si>
-  <si>
-    <t>测试图片47</t>
-  </si>
-  <si>
-    <t>测试图片48</t>
-  </si>
-  <si>
-    <t>x25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>photograph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ys1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ys2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ys3</t>
+  </si>
+  <si>
+    <t>ys4</t>
+  </si>
+  <si>
+    <t>ys5</t>
+  </si>
+  <si>
+    <t>ys6</t>
+  </si>
+  <si>
+    <t>ys7</t>
+  </si>
+  <si>
+    <t>ys8</t>
+  </si>
+  <si>
+    <t>ys9</t>
+  </si>
+  <si>
+    <t>ys10</t>
+  </si>
+  <si>
+    <t>测试图片115</t>
+  </si>
+  <si>
+    <t>测试图片116</t>
+  </si>
+  <si>
+    <t>测试图片117</t>
+  </si>
+  <si>
+    <t>测试图片118</t>
+  </si>
+  <si>
+    <t>测试图片119</t>
+  </si>
+  <si>
+    <t>测试图片120</t>
+  </si>
+  <si>
+    <t>测试图片121</t>
+  </si>
+  <si>
+    <t>测试图片122</t>
+  </si>
+  <si>
+    <t>测试图片123</t>
+  </si>
+  <si>
+    <t>测试图片124</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1243,14 +1624,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
@@ -1258,69 +1639,69 @@
     <col min="6" max="6" width="26.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1334,13 +1715,13 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="F5" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1354,13 +1735,13 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="F6" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1374,13 +1755,13 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="F7" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1394,13 +1775,13 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="F8" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1414,7 +1795,7 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="F9" s="1">
         <v>81</v>
@@ -1423,7 +1804,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1433,14 +1814,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="11" style="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
@@ -1448,12 +1829,12 @@
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1473,7 +1854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1493,7 +1874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1510,7 +1891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1530,7 +1911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1550,7 +1931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1570,7 +1951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -1590,26 +1971,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="61.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1620,7 +2001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1631,12 +2012,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="C4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1644,10 +2025,10 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1655,128 +2036,106 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>52</v>
       </c>
       <c r="B9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
         <v>110</v>
       </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
       <c r="C14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1791,14 +2150,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105:F114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="4" width="19.125" customWidth="1"/>
@@ -1806,12 +2165,12 @@
     <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1822,7 +2181,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
@@ -1831,7 +2190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1842,7 +2201,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>42</v>
@@ -1851,7 +2210,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -1859,7 +2218,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -1868,35 +2227,35 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
@@ -1905,18 +2264,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>0</v>
@@ -1925,18 +2284,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1" t="b">
         <v>0</v>
@@ -1945,18 +2304,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E9" s="1" t="b">
         <v>0</v>
@@ -1965,18 +2324,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E10" s="1" t="b">
         <v>0</v>
@@ -1985,18 +2344,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E11" s="1" t="b">
         <v>0</v>
@@ -2005,18 +2364,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1" t="b">
         <v>0</v>
@@ -2025,18 +2384,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E13" s="1" t="b">
         <v>0</v>
@@ -2045,18 +2404,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1" t="b">
         <v>0</v>
@@ -2065,38 +2424,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1" t="b">
         <v>0</v>
@@ -2105,18 +2461,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>0</v>
@@ -2125,18 +2481,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E18" s="1" t="b">
         <v>0</v>
@@ -2145,35 +2501,38 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E19" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>0</v>
@@ -2182,18 +2541,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E21" s="1" t="b">
         <v>0</v>
@@ -2202,18 +2561,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E22" s="1" t="b">
         <v>0</v>
@@ -2222,18 +2581,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E23" s="1" t="b">
         <v>0</v>
@@ -2242,18 +2601,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E24" s="1" t="b">
         <v>0</v>
@@ -2262,38 +2621,38 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E25" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E26" s="1" t="b">
         <v>0</v>
@@ -2302,18 +2661,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E27" s="1" t="b">
         <v>0</v>
@@ -2322,18 +2681,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E28" s="1" t="b">
         <v>0</v>
@@ -2342,18 +2701,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E29" s="1" t="b">
         <v>0</v>
@@ -2362,18 +2721,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E30" s="1" t="b">
         <v>0</v>
@@ -2382,18 +2741,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E31" s="1" t="b">
         <v>0</v>
@@ -2402,18 +2761,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C32" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E32" s="1" t="b">
         <v>0</v>
@@ -2422,18 +2781,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E33" s="1" t="b">
         <v>0</v>
@@ -2442,18 +2801,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E34" s="1" t="b">
         <v>0</v>
@@ -2462,38 +2821,38 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E35" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D36" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E36" s="1" t="b">
         <v>0</v>
@@ -2502,18 +2861,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>0</v>
@@ -2522,18 +2881,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="E38" s="1" t="b">
         <v>0</v>
@@ -2542,18 +2901,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D39" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E39" s="1" t="b">
         <v>0</v>
@@ -2562,18 +2921,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>0</v>
@@ -2582,18 +2941,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E41" s="1" t="b">
         <v>0</v>
@@ -2602,18 +2961,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D42" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E42" s="1" t="b">
         <v>0</v>
@@ -2622,18 +2981,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>39</v>
       </c>
       <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" t="s">
         <v>192</v>
       </c>
-      <c r="C43" t="s">
-        <v>197</v>
-      </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E43" s="1" t="b">
         <v>0</v>
@@ -2642,18 +3001,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D44" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E44" s="1" t="b">
         <v>0</v>
@@ -2662,38 +3021,35 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D46" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E46" s="1" t="b">
         <v>0</v>
@@ -2702,18 +3058,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E47" s="1" t="b">
         <v>0</v>
@@ -2722,18 +3078,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E48" s="1" t="b">
         <v>0</v>
@@ -2742,18 +3098,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E49" s="1" t="b">
         <v>0</v>
@@ -2762,18 +3118,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C50" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D50" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E50" s="1" t="b">
         <v>0</v>
@@ -2782,18 +3138,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E51" s="1" t="b">
         <v>0</v>
@@ -2802,23 +3158,1245 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C52" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E52" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F52" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" t="s">
+        <v>224</v>
+      </c>
+      <c r="D55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" t="s">
+        <v>235</v>
+      </c>
+      <c r="E56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57" t="s">
+        <v>236</v>
+      </c>
+      <c r="E57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" t="s">
+        <v>230</v>
+      </c>
+      <c r="D61" t="s">
+        <v>240</v>
+      </c>
+      <c r="E61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" t="s">
+        <v>241</v>
+      </c>
+      <c r="E62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" t="s">
+        <v>242</v>
+      </c>
+      <c r="E63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" t="s">
+        <v>233</v>
+      </c>
+      <c r="D64" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>245</v>
+      </c>
+      <c r="C65" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" t="s">
+        <v>256</v>
+      </c>
+      <c r="E65" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" t="s">
+        <v>257</v>
+      </c>
+      <c r="E66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>245</v>
+      </c>
+      <c r="C67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" t="s">
+        <v>258</v>
+      </c>
+      <c r="E67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" t="s">
+        <v>249</v>
+      </c>
+      <c r="D68" t="s">
+        <v>259</v>
+      </c>
+      <c r="E68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D69" t="s">
+        <v>260</v>
+      </c>
+      <c r="E69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70" t="s">
+        <v>245</v>
+      </c>
+      <c r="C70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" t="s">
+        <v>261</v>
+      </c>
+      <c r="E70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" t="s">
+        <v>262</v>
+      </c>
+      <c r="E71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" t="s">
+        <v>253</v>
+      </c>
+      <c r="D72" t="s">
+        <v>263</v>
+      </c>
+      <c r="E72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73" t="s">
+        <v>245</v>
+      </c>
+      <c r="C73" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" t="s">
+        <v>264</v>
+      </c>
+      <c r="E73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>245</v>
+      </c>
+      <c r="C74" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" t="s">
+        <v>265</v>
+      </c>
+      <c r="E74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>71</v>
+      </c>
+      <c r="B75" t="s">
+        <v>266</v>
+      </c>
+      <c r="C75" t="s">
+        <v>267</v>
+      </c>
+      <c r="D75" t="s">
+        <v>277</v>
+      </c>
+      <c r="E75" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>72</v>
+      </c>
+      <c r="B76" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" t="s">
+        <v>268</v>
+      </c>
+      <c r="D76" t="s">
+        <v>278</v>
+      </c>
+      <c r="E76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>73</v>
+      </c>
+      <c r="B77" t="s">
+        <v>266</v>
+      </c>
+      <c r="C77" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" t="s">
+        <v>279</v>
+      </c>
+      <c r="E77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>74</v>
+      </c>
+      <c r="B78" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78" t="s">
+        <v>280</v>
+      </c>
+      <c r="E78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>75</v>
+      </c>
+      <c r="B79" t="s">
+        <v>266</v>
+      </c>
+      <c r="C79" t="s">
+        <v>271</v>
+      </c>
+      <c r="D79" t="s">
+        <v>281</v>
+      </c>
+      <c r="E79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>76</v>
+      </c>
+      <c r="B80" t="s">
+        <v>266</v>
+      </c>
+      <c r="C80" t="s">
+        <v>272</v>
+      </c>
+      <c r="D80" t="s">
+        <v>282</v>
+      </c>
+      <c r="E80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" t="s">
+        <v>273</v>
+      </c>
+      <c r="D81" t="s">
+        <v>283</v>
+      </c>
+      <c r="E81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>78</v>
+      </c>
+      <c r="B82" t="s">
+        <v>266</v>
+      </c>
+      <c r="C82" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82" t="s">
+        <v>284</v>
+      </c>
+      <c r="E82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>79</v>
+      </c>
+      <c r="B83" t="s">
+        <v>266</v>
+      </c>
+      <c r="C83" t="s">
+        <v>275</v>
+      </c>
+      <c r="D83" t="s">
+        <v>285</v>
+      </c>
+      <c r="E83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>80</v>
+      </c>
+      <c r="B84" t="s">
+        <v>266</v>
+      </c>
+      <c r="C84" t="s">
+        <v>276</v>
+      </c>
+      <c r="D84" t="s">
+        <v>286</v>
+      </c>
+      <c r="E84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
+        <v>288</v>
+      </c>
+      <c r="C85" t="s">
+        <v>289</v>
+      </c>
+      <c r="D85" t="s">
+        <v>299</v>
+      </c>
+      <c r="E85" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>82</v>
+      </c>
+      <c r="B86" t="s">
+        <v>288</v>
+      </c>
+      <c r="C86" t="s">
+        <v>290</v>
+      </c>
+      <c r="D86" t="s">
+        <v>300</v>
+      </c>
+      <c r="E86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>288</v>
+      </c>
+      <c r="C87" t="s">
+        <v>291</v>
+      </c>
+      <c r="D87" t="s">
+        <v>301</v>
+      </c>
+      <c r="E87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>288</v>
+      </c>
+      <c r="C88" t="s">
+        <v>292</v>
+      </c>
+      <c r="D88" t="s">
+        <v>302</v>
+      </c>
+      <c r="E88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>85</v>
+      </c>
+      <c r="B89" t="s">
+        <v>288</v>
+      </c>
+      <c r="C89" t="s">
+        <v>293</v>
+      </c>
+      <c r="D89" t="s">
+        <v>303</v>
+      </c>
+      <c r="E89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>86</v>
+      </c>
+      <c r="B90" t="s">
+        <v>288</v>
+      </c>
+      <c r="C90" t="s">
+        <v>294</v>
+      </c>
+      <c r="D90" t="s">
+        <v>304</v>
+      </c>
+      <c r="E90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>87</v>
+      </c>
+      <c r="B91" t="s">
+        <v>288</v>
+      </c>
+      <c r="C91" t="s">
+        <v>295</v>
+      </c>
+      <c r="D91" t="s">
+        <v>305</v>
+      </c>
+      <c r="E91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>88</v>
+      </c>
+      <c r="B92" t="s">
+        <v>288</v>
+      </c>
+      <c r="C92" t="s">
+        <v>296</v>
+      </c>
+      <c r="D92" t="s">
+        <v>306</v>
+      </c>
+      <c r="E92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>89</v>
+      </c>
+      <c r="B93" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" t="s">
+        <v>297</v>
+      </c>
+      <c r="D93" t="s">
+        <v>307</v>
+      </c>
+      <c r="E93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>90</v>
+      </c>
+      <c r="B94" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" t="s">
+        <v>298</v>
+      </c>
+      <c r="D94" t="s">
+        <v>308</v>
+      </c>
+      <c r="E94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>91</v>
+      </c>
+      <c r="B95" t="s">
+        <v>310</v>
+      </c>
+      <c r="C95" t="s">
+        <v>311</v>
+      </c>
+      <c r="D95" t="s">
+        <v>321</v>
+      </c>
+      <c r="E95" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>92</v>
+      </c>
+      <c r="B96" t="s">
+        <v>310</v>
+      </c>
+      <c r="C96" t="s">
+        <v>312</v>
+      </c>
+      <c r="D96" t="s">
+        <v>322</v>
+      </c>
+      <c r="E96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>93</v>
+      </c>
+      <c r="B97" t="s">
+        <v>310</v>
+      </c>
+      <c r="C97" t="s">
+        <v>313</v>
+      </c>
+      <c r="D97" t="s">
+        <v>323</v>
+      </c>
+      <c r="E97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>94</v>
+      </c>
+      <c r="B98" t="s">
+        <v>310</v>
+      </c>
+      <c r="C98" t="s">
+        <v>314</v>
+      </c>
+      <c r="D98" t="s">
+        <v>324</v>
+      </c>
+      <c r="E98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>95</v>
+      </c>
+      <c r="B99" t="s">
+        <v>310</v>
+      </c>
+      <c r="C99" t="s">
+        <v>315</v>
+      </c>
+      <c r="D99" t="s">
+        <v>325</v>
+      </c>
+      <c r="E99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>96</v>
+      </c>
+      <c r="B100" t="s">
+        <v>310</v>
+      </c>
+      <c r="C100" t="s">
+        <v>316</v>
+      </c>
+      <c r="D100" t="s">
+        <v>326</v>
+      </c>
+      <c r="E100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>97</v>
+      </c>
+      <c r="B101" t="s">
+        <v>310</v>
+      </c>
+      <c r="C101" t="s">
+        <v>317</v>
+      </c>
+      <c r="D101" t="s">
+        <v>327</v>
+      </c>
+      <c r="E101" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>98</v>
+      </c>
+      <c r="B102" t="s">
+        <v>310</v>
+      </c>
+      <c r="C102" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" t="s">
+        <v>328</v>
+      </c>
+      <c r="E102" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>99</v>
+      </c>
+      <c r="B103" t="s">
+        <v>310</v>
+      </c>
+      <c r="C103" t="s">
+        <v>319</v>
+      </c>
+      <c r="D103" t="s">
+        <v>329</v>
+      </c>
+      <c r="E103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>100</v>
+      </c>
+      <c r="B104" t="s">
+        <v>310</v>
+      </c>
+      <c r="C104" t="s">
+        <v>320</v>
+      </c>
+      <c r="D104" t="s">
+        <v>330</v>
+      </c>
+      <c r="E104" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>101</v>
+      </c>
+      <c r="B105" t="s">
+        <v>332</v>
+      </c>
+      <c r="C105" t="s">
+        <v>333</v>
+      </c>
+      <c r="D105" t="s">
+        <v>343</v>
+      </c>
+      <c r="E105" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>102</v>
+      </c>
+      <c r="B106" t="s">
+        <v>332</v>
+      </c>
+      <c r="C106" t="s">
+        <v>334</v>
+      </c>
+      <c r="D106" t="s">
+        <v>344</v>
+      </c>
+      <c r="E106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>103</v>
+      </c>
+      <c r="B107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C107" t="s">
+        <v>335</v>
+      </c>
+      <c r="D107" t="s">
+        <v>345</v>
+      </c>
+      <c r="E107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>104</v>
+      </c>
+      <c r="B108" t="s">
+        <v>332</v>
+      </c>
+      <c r="C108" t="s">
+        <v>336</v>
+      </c>
+      <c r="D108" t="s">
+        <v>346</v>
+      </c>
+      <c r="E108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>105</v>
+      </c>
+      <c r="B109" t="s">
+        <v>332</v>
+      </c>
+      <c r="C109" t="s">
+        <v>337</v>
+      </c>
+      <c r="D109" t="s">
+        <v>347</v>
+      </c>
+      <c r="E109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>106</v>
+      </c>
+      <c r="B110" t="s">
+        <v>332</v>
+      </c>
+      <c r="C110" t="s">
+        <v>338</v>
+      </c>
+      <c r="D110" t="s">
+        <v>348</v>
+      </c>
+      <c r="E110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>107</v>
+      </c>
+      <c r="B111" t="s">
+        <v>332</v>
+      </c>
+      <c r="C111" t="s">
+        <v>339</v>
+      </c>
+      <c r="D111" t="s">
+        <v>349</v>
+      </c>
+      <c r="E111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>108</v>
+      </c>
+      <c r="B112" t="s">
+        <v>332</v>
+      </c>
+      <c r="C112" t="s">
+        <v>340</v>
+      </c>
+      <c r="D112" t="s">
+        <v>350</v>
+      </c>
+      <c r="E112" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>109</v>
+      </c>
+      <c r="B113" t="s">
+        <v>332</v>
+      </c>
+      <c r="C113" t="s">
+        <v>341</v>
+      </c>
+      <c r="D113" t="s">
+        <v>351</v>
+      </c>
+      <c r="E113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>110</v>
+      </c>
+      <c r="B114" t="s">
+        <v>332</v>
+      </c>
+      <c r="C114" t="s">
+        <v>342</v>
+      </c>
+      <c r="D114" t="s">
+        <v>352</v>
+      </c>
+      <c r="E114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
         <v>100</v>
       </c>
     </row>
@@ -2834,46 +4412,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2881,10 +4459,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2892,10 +4470,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -2903,10 +4481,10 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2914,10 +4492,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2925,10 +4503,10 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2936,10 +4514,10 @@
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2947,7 +4525,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2963,25 +4541,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2989,7 +4567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2997,20 +4575,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3026,24 +4604,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3051,15 +4629,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3067,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3075,7 +4653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3083,7 +4661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -3091,7 +4669,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -3099,7 +4677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -3107,7 +4685,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -3115,7 +4693,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -3123,7 +4701,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3131,7 +4709,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>10</v>
       </c>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="300" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="sign" sheetId="7" r:id="rId5"/>
     <sheet name="msglist" sheetId="4" r:id="rId6"/>
     <sheet name="level" sheetId="6" r:id="rId7"/>
+    <sheet name="push" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="362">
   <si>
     <t>shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1233,13 +1234,49 @@
   </si>
   <si>
     <t>测试图片124</t>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1288,7 +1325,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1624,19 +1661,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="26.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1814,18 +1851,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="11" style="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1971,18 +2008,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="61.625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2150,18 +2187,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="E105" sqref="E105:F114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4412,16 +4449,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4541,17 +4578,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4604,14 +4641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="11" style="1"/>
   </cols>
@@ -4715,6 +4752,115 @@
       </c>
       <c r="B14" s="1">
         <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="6" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="400" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
@@ -651,26 +651,10 @@
     <t>测试图片48</t>
   </si>
   <si>
-    <t>x25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>anim1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1269,6 +1253,22 @@
   </si>
   <si>
     <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x84</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1664,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1752,10 +1752,10 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>358</v>
       </c>
       <c r="F5" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1763,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1772,10 +1772,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>359</v>
       </c>
       <c r="F6" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1783,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -1792,10 +1792,10 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>360</v>
       </c>
       <c r="F7" s="1">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -1812,10 +1812,10 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F8" s="1">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1823,7 +1823,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -1832,10 +1832,10 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>361</v>
       </c>
       <c r="F9" s="1">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2103,7 @@
         <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
         <v>107</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B15" t="s">
         <v>101</v>
@@ -2272,7 +2272,7 @@
         <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
         <v>71</v>
@@ -2289,7 +2289,7 @@
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
         <v>72</v>
@@ -2309,7 +2309,7 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
         <v>73</v>
@@ -2329,7 +2329,7 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
         <v>114</v>
@@ -2349,7 +2349,7 @@
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
         <v>115</v>
@@ -2369,7 +2369,7 @@
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
         <v>116</v>
@@ -2389,7 +2389,7 @@
         <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
         <v>117</v>
@@ -2409,7 +2409,7 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
         <v>118</v>
@@ -2429,7 +2429,7 @@
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
         <v>119</v>
@@ -2449,7 +2449,7 @@
         <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
@@ -2866,7 +2866,7 @@
         <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s">
         <v>165</v>
@@ -2886,7 +2886,7 @@
         <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D36" t="s">
         <v>166</v>
@@ -2906,7 +2906,7 @@
         <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
         <v>167</v>
@@ -2926,7 +2926,7 @@
         <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
         <v>168</v>
@@ -2946,10 +2946,10 @@
         <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E39" s="1" t="b">
         <v>0</v>
@@ -2966,10 +2966,10 @@
         <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>0</v>
@@ -2986,10 +2986,10 @@
         <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E41" s="1" t="b">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E42" s="1" t="b">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D43" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E43" s="1" t="b">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E44" s="1" t="b">
         <v>0</v>
@@ -3063,13 +3063,13 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D45" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E45" s="1" t="b">
         <v>1</v>
@@ -3080,13 +3080,13 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D46" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E46" s="1" t="b">
         <v>0</v>
@@ -3100,13 +3100,13 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" t="s">
         <v>200</v>
       </c>
-      <c r="C47" t="s">
-        <v>204</v>
-      </c>
       <c r="D47" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E47" s="1" t="b">
         <v>0</v>
@@ -3120,13 +3120,13 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E48" s="1" t="b">
         <v>0</v>
@@ -3140,13 +3140,13 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D49" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E49" s="1" t="b">
         <v>0</v>
@@ -3160,13 +3160,13 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E50" s="1" t="b">
         <v>0</v>
@@ -3180,13 +3180,13 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E51" s="1" t="b">
         <v>0</v>
@@ -3200,13 +3200,13 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C52" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E52" s="1" t="b">
         <v>0</v>
@@ -3220,13 +3220,13 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C53" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E53" s="1" t="b">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C54" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E54" s="1" t="b">
         <v>0</v>
@@ -3260,13 +3260,13 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E55" s="1" t="b">
         <v>1</v>
@@ -3277,13 +3277,13 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C56" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E56" s="1" t="b">
         <v>0</v>
@@ -3297,13 +3297,13 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C57" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E57" s="1" t="b">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" t="s">
         <v>223</v>
       </c>
-      <c r="C58" t="s">
-        <v>227</v>
-      </c>
       <c r="D58" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E58" s="1" t="b">
         <v>0</v>
@@ -3337,13 +3337,13 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C59" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D59" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E59" s="1" t="b">
         <v>0</v>
@@ -3357,13 +3357,13 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E60" s="1" t="b">
         <v>0</v>
@@ -3377,13 +3377,13 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E61" s="1" t="b">
         <v>0</v>
@@ -3397,13 +3397,13 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D62" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E62" s="1" t="b">
         <v>0</v>
@@ -3417,13 +3417,13 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D63" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E63" s="1" t="b">
         <v>0</v>
@@ -3437,13 +3437,13 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C64" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D64" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E64" s="1" t="b">
         <v>0</v>
@@ -3457,13 +3457,13 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C65" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E65" s="1" t="b">
         <v>1</v>
@@ -3474,13 +3474,13 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C66" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D66" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E66" s="1" t="b">
         <v>0</v>
@@ -3494,13 +3494,13 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C67" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D67" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E67" s="1" t="b">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68" t="s">
         <v>245</v>
       </c>
-      <c r="C68" t="s">
-        <v>249</v>
-      </c>
       <c r="D68" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E68" s="1" t="b">
         <v>0</v>
@@ -3534,13 +3534,13 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C69" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D69" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E69" s="1" t="b">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D70" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E70" s="1" t="b">
         <v>0</v>
@@ -3574,13 +3574,13 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D71" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E71" s="1" t="b">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D72" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E72" s="1" t="b">
         <v>0</v>
@@ -3614,13 +3614,13 @@
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C73" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D73" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E73" s="1" t="b">
         <v>0</v>
@@ -3634,13 +3634,13 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C74" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D74" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E74" s="1" t="b">
         <v>0</v>
@@ -3654,13 +3654,13 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C75" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D75" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E75" s="1" t="b">
         <v>1</v>
@@ -3671,13 +3671,13 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C76" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D76" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E76" s="1" t="b">
         <v>0</v>
@@ -3691,13 +3691,13 @@
         <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C77" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D77" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E77" s="1" t="b">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>74</v>
       </c>
       <c r="B78" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78" t="s">
         <v>266</v>
       </c>
-      <c r="C78" t="s">
-        <v>270</v>
-      </c>
       <c r="D78" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E78" s="1" t="b">
         <v>0</v>
@@ -3731,13 +3731,13 @@
         <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C79" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D79" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E79" s="1" t="b">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C80" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D80" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E80" s="1" t="b">
         <v>0</v>
@@ -3771,13 +3771,13 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C81" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D81" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E81" s="1" t="b">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C82" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D82" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E82" s="1" t="b">
         <v>0</v>
@@ -3811,13 +3811,13 @@
         <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C83" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D83" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E83" s="1" t="b">
         <v>0</v>
@@ -3831,13 +3831,13 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C84" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D84" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E84" s="1" t="b">
         <v>0</v>
@@ -3851,13 +3851,13 @@
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C85" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D85" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E85" s="1" t="b">
         <v>1</v>
@@ -3868,13 +3868,13 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C86" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D86" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E86" s="1" t="b">
         <v>0</v>
@@ -3888,13 +3888,13 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C87" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D87" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E87" s="1" t="b">
         <v>0</v>
@@ -3908,13 +3908,13 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
+        <v>284</v>
+      </c>
+      <c r="C88" t="s">
         <v>288</v>
       </c>
-      <c r="C88" t="s">
-        <v>292</v>
-      </c>
       <c r="D88" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E88" s="1" t="b">
         <v>0</v>
@@ -3928,13 +3928,13 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C89" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D89" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E89" s="1" t="b">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C90" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D90" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E90" s="1" t="b">
         <v>0</v>
@@ -3968,13 +3968,13 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C91" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D91" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C92" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D92" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E92" s="1" t="b">
         <v>0</v>
@@ -4008,13 +4008,13 @@
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C93" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D93" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E93" s="1" t="b">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C94" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D94" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E94" s="1" t="b">
         <v>0</v>
@@ -4048,13 +4048,13 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C95" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D95" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E95" s="1" t="b">
         <v>1</v>
@@ -4065,13 +4065,13 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C96" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D96" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E96" s="1" t="b">
         <v>0</v>
@@ -4085,13 +4085,13 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C97" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D97" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E97" s="1" t="b">
         <v>0</v>
@@ -4105,13 +4105,13 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
+        <v>306</v>
+      </c>
+      <c r="C98" t="s">
         <v>310</v>
       </c>
-      <c r="C98" t="s">
-        <v>314</v>
-      </c>
       <c r="D98" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E98" s="1" t="b">
         <v>0</v>
@@ -4125,13 +4125,13 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C99" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D99" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E99" s="1" t="b">
         <v>0</v>
@@ -4145,13 +4145,13 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C100" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D100" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E100" s="1" t="b">
         <v>0</v>
@@ -4165,13 +4165,13 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C101" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D101" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E101" s="1" t="b">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C102" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D102" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E102" s="1" t="b">
         <v>0</v>
@@ -4205,13 +4205,13 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C103" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D103" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E103" s="1" t="b">
         <v>0</v>
@@ -4225,13 +4225,13 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C104" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D104" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E104" s="1" t="b">
         <v>0</v>
@@ -4245,13 +4245,13 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C105" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D105" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E105" s="1" t="b">
         <v>1</v>
@@ -4262,13 +4262,13 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C106" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D106" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E106" s="1" t="b">
         <v>0</v>
@@ -4282,13 +4282,13 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C107" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D107" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E107" s="1" t="b">
         <v>0</v>
@@ -4302,13 +4302,13 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
+        <v>328</v>
+      </c>
+      <c r="C108" t="s">
         <v>332</v>
       </c>
-      <c r="C108" t="s">
-        <v>336</v>
-      </c>
       <c r="D108" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E108" s="1" t="b">
         <v>0</v>
@@ -4322,13 +4322,13 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C109" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D109" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E109" s="1" t="b">
         <v>0</v>
@@ -4342,13 +4342,13 @@
         <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C110" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D110" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E110" s="1" t="b">
         <v>0</v>
@@ -4362,13 +4362,13 @@
         <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C111" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D111" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E111" s="1" t="b">
         <v>0</v>
@@ -4382,13 +4382,13 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C112" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D112" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E112" s="1" t="b">
         <v>0</v>
@@ -4402,13 +4402,13 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C113" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D113" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E113" s="1" t="b">
         <v>0</v>
@@ -4422,13 +4422,13 @@
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C114" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D114" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E114" s="1" t="b">
         <v>0</v>
@@ -4769,7 +4769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4780,7 +4780,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4788,7 +4788,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -4800,7 +4800,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4808,19 +4808,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4837,10 +4837,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4857,10 +4857,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25240" windowHeight="14540" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="level" sheetId="6" r:id="rId7"/>
     <sheet name="push" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,1250 +26,678 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="224">
+  <si>
+    <t>pice_slice</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>cell_size</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>cell的像素</t>
+  </si>
+  <si>
+    <t>通关奖励金币</t>
+  </si>
+  <si>
+    <t>通关奖励经验</t>
+  </si>
+  <si>
+    <t>显示的名称</t>
+  </si>
+  <si>
+    <t>切片数量估算(并不是实际值)</t>
+  </si>
+  <si>
+    <t>x15</t>
+  </si>
+  <si>
+    <t>x24</t>
+  </si>
+  <si>
+    <t>x40</t>
+  </si>
+  <si>
+    <t>x64</t>
+  </si>
+  <si>
+    <t>x84</t>
+  </si>
   <si>
     <t>shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tag_line1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tag_line2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示样式</t>
+  </si>
+  <si>
+    <t>获得的金币</t>
+  </si>
+  <si>
+    <t>价格（rnb）</t>
+  </si>
+  <si>
+    <t>tag第一行文字</t>
+  </si>
+  <si>
+    <t>tag第二行文字</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>pictype</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <t>亲近大自然</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>动物</t>
+  </si>
+  <si>
+    <t>小小动物萌翻天</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>建筑</t>
+  </si>
+  <si>
+    <t>人类辉煌的建筑奇迹</t>
+  </si>
+  <si>
+    <t>draing</t>
+  </si>
+  <si>
+    <t>名画</t>
+  </si>
+  <si>
+    <t>世界顶级名画</t>
+  </si>
+  <si>
+    <t>confucianism</t>
+  </si>
+  <si>
+    <t>马赛克艺术</t>
+  </si>
+  <si>
+    <t>欣赏不一样的艺术</t>
+  </si>
+  <si>
+    <t>sunrising</t>
+  </si>
+  <si>
+    <t>夏季日出</t>
+  </si>
+  <si>
+    <t>感受阳光</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>海滩风景</t>
+  </si>
+  <si>
+    <t>不一样的海风</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>名车</t>
+  </si>
+  <si>
+    <t>欣赏世界名车</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>色彩艺术</t>
+  </si>
+  <si>
+    <t>感受不同色彩带来的视觉盛宴</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>海底世界</t>
+  </si>
+  <si>
+    <t>蓝色大海，让人窒息</t>
+  </si>
+  <si>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>移轴摄影</t>
+  </si>
+  <si>
+    <t>模型般的感觉</t>
   </si>
   <si>
     <t>pic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stirng</t>
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>对应pictype中的类型</t>
+  </si>
+  <si>
+    <t>文件名</t>
+  </si>
+  <si>
+    <t>显示的名字</t>
   </si>
   <si>
     <t>默认解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应pictype中的类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得的金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格（rnb）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag第一行文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag第二行文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pictype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>解锁消费金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stirng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim1</t>
+  </si>
+  <si>
+    <t>anim2</t>
+  </si>
+  <si>
+    <t>anim3</t>
+  </si>
+  <si>
+    <t>anim4</t>
+  </si>
+  <si>
+    <t>anim5</t>
+  </si>
+  <si>
+    <t>anim6</t>
+  </si>
+  <si>
+    <t>anim7</t>
+  </si>
+  <si>
+    <t>anim8</t>
+  </si>
+  <si>
+    <t>anim9</t>
+  </si>
+  <si>
+    <t>anim10</t>
+  </si>
+  <si>
+    <t>na1</t>
+  </si>
+  <si>
+    <t>na2</t>
+  </si>
+  <si>
+    <t>na3</t>
+  </si>
+  <si>
+    <t>na4</t>
+  </si>
+  <si>
+    <t>na5</t>
+  </si>
+  <si>
+    <t>na6</t>
+  </si>
+  <si>
+    <t>na7</t>
+  </si>
+  <si>
+    <t>na8</t>
+  </si>
+  <si>
+    <t>na9</t>
+  </si>
+  <si>
+    <t>na10</t>
+  </si>
+  <si>
+    <t>bu1</t>
+  </si>
+  <si>
+    <t>bu2</t>
+  </si>
+  <si>
+    <t>bu3</t>
+  </si>
+  <si>
+    <t>bu4</t>
+  </si>
+  <si>
+    <t>bu5</t>
+  </si>
+  <si>
+    <t>bu6</t>
+  </si>
+  <si>
+    <t>bu7</t>
+  </si>
+  <si>
+    <t>bu8</t>
+  </si>
+  <si>
+    <t>bu9</t>
+  </si>
+  <si>
+    <t>bu10</t>
+  </si>
+  <si>
+    <t>pic1</t>
+  </si>
+  <si>
+    <t>pic2</t>
+  </si>
+  <si>
+    <t>pic3</t>
+  </si>
+  <si>
+    <t>pic4</t>
+  </si>
+  <si>
+    <t>pic5</t>
+  </si>
+  <si>
+    <t>pic6</t>
+  </si>
+  <si>
+    <t>pic7</t>
+  </si>
+  <si>
+    <t>pic8</t>
+  </si>
+  <si>
+    <t>pic9</t>
+  </si>
+  <si>
+    <t>pic10</t>
+  </si>
+  <si>
+    <t>msk1</t>
+  </si>
+  <si>
+    <t>msk2</t>
+  </si>
+  <si>
+    <t>msk3</t>
+  </si>
+  <si>
+    <t>msk4</t>
+  </si>
+  <si>
+    <t>msk5</t>
+  </si>
+  <si>
+    <t>msk6</t>
+  </si>
+  <si>
+    <t>msk7</t>
+  </si>
+  <si>
+    <t>msk8</t>
+  </si>
+  <si>
+    <t>msk9</t>
+  </si>
+  <si>
+    <t>msk10</t>
+  </si>
+  <si>
+    <t>sum1</t>
+  </si>
+  <si>
+    <t>sum2</t>
+  </si>
+  <si>
+    <t>sum3</t>
+  </si>
+  <si>
+    <t>sum4</t>
+  </si>
+  <si>
+    <t>sum5</t>
+  </si>
+  <si>
+    <t>sum6</t>
+  </si>
+  <si>
+    <t>sum7</t>
+  </si>
+  <si>
+    <t>sum8</t>
+  </si>
+  <si>
+    <t>sum9</t>
+  </si>
+  <si>
+    <t>sum10</t>
+  </si>
+  <si>
+    <t>bh1</t>
+  </si>
+  <si>
+    <t>bh2</t>
+  </si>
+  <si>
+    <t>bh3</t>
+  </si>
+  <si>
+    <t>bh4</t>
+  </si>
+  <si>
+    <t>bh5</t>
+  </si>
+  <si>
+    <t>bh6</t>
+  </si>
+  <si>
+    <t>bh7</t>
+  </si>
+  <si>
+    <t>bh8</t>
+  </si>
+  <si>
+    <t>bh9</t>
+  </si>
+  <si>
+    <t>bh10</t>
+  </si>
+  <si>
+    <t>car1</t>
+  </si>
+  <si>
+    <t>car2</t>
+  </si>
+  <si>
+    <t>car3</t>
+  </si>
+  <si>
+    <t>car4</t>
+  </si>
+  <si>
+    <t>car5</t>
+  </si>
+  <si>
+    <t>car6</t>
+  </si>
+  <si>
+    <t>car7</t>
+  </si>
+  <si>
+    <t>car8</t>
+  </si>
+  <si>
+    <t>car9</t>
+  </si>
+  <si>
+    <t>car10</t>
+  </si>
+  <si>
+    <t>co1</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>co3</t>
+  </si>
+  <si>
+    <t>co4</t>
+  </si>
+  <si>
+    <t>co5</t>
+  </si>
+  <si>
+    <t>co6</t>
+  </si>
+  <si>
+    <t>co7</t>
+  </si>
+  <si>
+    <t>co8</t>
+  </si>
+  <si>
+    <t>co9</t>
+  </si>
+  <si>
+    <t>co10</t>
+  </si>
+  <si>
+    <t>sea1</t>
+  </si>
+  <si>
+    <t>sea2</t>
+  </si>
+  <si>
+    <t>sea3</t>
+  </si>
+  <si>
+    <t>sea4</t>
+  </si>
+  <si>
+    <t>sea5</t>
+  </si>
+  <si>
+    <t>sea6</t>
+  </si>
+  <si>
+    <t>sea7</t>
+  </si>
+  <si>
+    <t>sea8</t>
+  </si>
+  <si>
+    <t>sea9</t>
+  </si>
+  <si>
+    <t>sea10</t>
+  </si>
+  <si>
+    <t>ys1</t>
+  </si>
+  <si>
+    <t>ys2</t>
+  </si>
+  <si>
+    <t>ys3</t>
+  </si>
+  <si>
+    <t>ys4</t>
+  </si>
+  <si>
+    <t>ys5</t>
+  </si>
+  <si>
+    <t>ys6</t>
+  </si>
+  <si>
+    <t>ys7</t>
+  </si>
+  <si>
+    <t>ys8</t>
+  </si>
+  <si>
+    <t>ys9</t>
+  </si>
+  <si>
+    <t>ys10</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>DAY 1</t>
+  </si>
+  <si>
+    <t>DAY 2</t>
+  </si>
+  <si>
+    <t>DAY 3</t>
+  </si>
+  <si>
+    <t>DAY 4</t>
+  </si>
+  <si>
+    <t>DAY 5</t>
+  </si>
+  <si>
+    <t>DAY 6</t>
+  </si>
+  <si>
+    <t>DAY 7</t>
   </si>
   <si>
     <t>msglist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>lack_of_gold</t>
   </si>
   <si>
     <t>金币不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>confucianism</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏季日出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海滩风景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell的像素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pice_slice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>评论即送40金币!</t>
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>needexp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示的名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图片1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图片2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图片3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关奖励金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关奖励经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lack_of_gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAY 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAY 3</t>
-  </si>
-  <si>
-    <t>DAY 4</t>
-  </si>
-  <si>
-    <t>DAY 5</t>
-  </si>
-  <si>
-    <t>DAY 6</t>
-  </si>
-  <si>
-    <t>DAY 7</t>
-  </si>
-  <si>
-    <t>DAY 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切片数量估算(并不是实际值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论即送40金币!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移轴摄影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲近大自然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小动物萌翻天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nature</t>
-  </si>
-  <si>
-    <t>人类辉煌的建筑奇迹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界顶级名画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣赏不一样的艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感受阳光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不一样的海风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣赏世界名车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感受不同色彩带来的视觉盛宴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色大海，让人窒息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型般的感觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图片4</t>
-  </si>
-  <si>
-    <t>测试图片5</t>
-  </si>
-  <si>
-    <t>测试图片6</t>
-  </si>
-  <si>
-    <t>测试图片7</t>
-  </si>
-  <si>
-    <t>测试图片8</t>
-  </si>
-  <si>
-    <t>测试图片9</t>
-  </si>
-  <si>
-    <t>测试图片10</t>
-  </si>
-  <si>
-    <t>测试图片15</t>
-  </si>
-  <si>
-    <t>测试图片16</t>
-  </si>
-  <si>
-    <t>测试图片17</t>
-  </si>
-  <si>
-    <t>测试图片18</t>
-  </si>
-  <si>
-    <t>测试图片19</t>
-  </si>
-  <si>
-    <t>测试图片20</t>
-  </si>
-  <si>
-    <t>测试图片21</t>
-  </si>
-  <si>
-    <t>测试图片22</t>
-  </si>
-  <si>
-    <t>测试图片23</t>
-  </si>
-  <si>
-    <t>测试图片24</t>
-  </si>
-  <si>
-    <t>na1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na3</t>
-  </si>
-  <si>
-    <t>na4</t>
-  </si>
-  <si>
-    <t>na5</t>
-  </si>
-  <si>
-    <t>na6</t>
-  </si>
-  <si>
-    <t>na7</t>
-  </si>
-  <si>
-    <t>na8</t>
-  </si>
-  <si>
-    <t>na9</t>
-  </si>
-  <si>
-    <t>na10</t>
-  </si>
-  <si>
-    <t>building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bu3</t>
-  </si>
-  <si>
-    <t>bu4</t>
-  </si>
-  <si>
-    <t>bu5</t>
-  </si>
-  <si>
-    <t>bu6</t>
-  </si>
-  <si>
-    <t>bu7</t>
-  </si>
-  <si>
-    <t>bu8</t>
-  </si>
-  <si>
-    <t>bu9</t>
-  </si>
-  <si>
-    <t>bu10</t>
-  </si>
-  <si>
-    <t>测试图片35</t>
-  </si>
-  <si>
-    <t>测试图片36</t>
-  </si>
-  <si>
-    <t>测试图片37</t>
-  </si>
-  <si>
-    <t>测试图片38</t>
-  </si>
-  <si>
-    <t>测试图片39</t>
-  </si>
-  <si>
-    <t>测试图片40</t>
-  </si>
-  <si>
-    <t>测试图片41</t>
-  </si>
-  <si>
-    <t>测试图片42</t>
-  </si>
-  <si>
-    <t>测试图片43</t>
-  </si>
-  <si>
-    <t>测试图片44</t>
-  </si>
-  <si>
-    <t>draing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>draing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图片45</t>
-  </si>
-  <si>
-    <t>测试图片46</t>
-  </si>
-  <si>
-    <t>测试图片47</t>
-  </si>
-  <si>
-    <t>测试图片48</t>
-  </si>
-  <si>
-    <t>x64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anim1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anim2</t>
-  </si>
-  <si>
-    <t>anim3</t>
-  </si>
-  <si>
-    <t>anim4</t>
-  </si>
-  <si>
-    <t>anim5</t>
-  </si>
-  <si>
-    <t>anim6</t>
-  </si>
-  <si>
-    <t>anim7</t>
-  </si>
-  <si>
-    <t>anim8</t>
-  </si>
-  <si>
-    <t>anim9</t>
-  </si>
-  <si>
-    <t>anim10</t>
-  </si>
-  <si>
-    <t>pic1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic2</t>
-  </si>
-  <si>
-    <t>pic3</t>
-  </si>
-  <si>
-    <t>pic4</t>
-  </si>
-  <si>
-    <t>pic5</t>
-  </si>
-  <si>
-    <t>pic6</t>
-  </si>
-  <si>
-    <t>pic7</t>
-  </si>
-  <si>
-    <t>pic8</t>
-  </si>
-  <si>
-    <t>pic9</t>
-  </si>
-  <si>
-    <t>pic10</t>
-  </si>
-  <si>
-    <t>测试图片49</t>
-  </si>
-  <si>
-    <t>测试图片50</t>
-  </si>
-  <si>
-    <t>测试图片51</t>
-  </si>
-  <si>
-    <t>测试图片52</t>
-  </si>
-  <si>
-    <t>测试图片53</t>
-  </si>
-  <si>
-    <t>测试图片54</t>
-  </si>
-  <si>
-    <t>confucianism</t>
-  </si>
-  <si>
-    <t>马赛克艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msk3</t>
-  </si>
-  <si>
-    <t>msk4</t>
-  </si>
-  <si>
-    <t>msk5</t>
-  </si>
-  <si>
-    <t>msk6</t>
-  </si>
-  <si>
-    <t>msk7</t>
-  </si>
-  <si>
-    <t>msk8</t>
-  </si>
-  <si>
-    <t>msk9</t>
-  </si>
-  <si>
-    <t>msk10</t>
-  </si>
-  <si>
-    <t>测试图片55</t>
-  </si>
-  <si>
-    <t>测试图片56</t>
-  </si>
-  <si>
-    <t>测试图片57</t>
-  </si>
-  <si>
-    <t>测试图片58</t>
-  </si>
-  <si>
-    <t>测试图片59</t>
-  </si>
-  <si>
-    <t>测试图片60</t>
-  </si>
-  <si>
-    <t>测试图片61</t>
-  </si>
-  <si>
-    <t>测试图片62</t>
-  </si>
-  <si>
-    <t>测试图片63</t>
-  </si>
-  <si>
-    <t>测试图片64</t>
-  </si>
-  <si>
-    <t>sunrising</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sunrising</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum3</t>
-  </si>
-  <si>
-    <t>sum4</t>
-  </si>
-  <si>
-    <t>sum5</t>
-  </si>
-  <si>
-    <t>sum6</t>
-  </si>
-  <si>
-    <t>sum7</t>
-  </si>
-  <si>
-    <t>sum8</t>
-  </si>
-  <si>
-    <t>sum9</t>
-  </si>
-  <si>
-    <t>sum10</t>
-  </si>
-  <si>
-    <t>测试图片65</t>
-  </si>
-  <si>
-    <t>测试图片66</t>
-  </si>
-  <si>
-    <t>测试图片67</t>
-  </si>
-  <si>
-    <t>测试图片68</t>
-  </si>
-  <si>
-    <t>测试图片69</t>
-  </si>
-  <si>
-    <t>测试图片70</t>
-  </si>
-  <si>
-    <t>测试图片71</t>
-  </si>
-  <si>
-    <t>测试图片72</t>
-  </si>
-  <si>
-    <t>测试图片73</t>
-  </si>
-  <si>
-    <t>测试图片74</t>
-  </si>
-  <si>
-    <t>beach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bh1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bh2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bh3</t>
-  </si>
-  <si>
-    <t>bh4</t>
-  </si>
-  <si>
-    <t>bh5</t>
-  </si>
-  <si>
-    <t>bh6</t>
-  </si>
-  <si>
-    <t>bh7</t>
-  </si>
-  <si>
-    <t>bh8</t>
-  </si>
-  <si>
-    <t>bh9</t>
-  </si>
-  <si>
-    <t>bh10</t>
-  </si>
-  <si>
-    <t>测试图片75</t>
-  </si>
-  <si>
-    <t>测试图片76</t>
-  </si>
-  <si>
-    <t>测试图片77</t>
-  </si>
-  <si>
-    <t>测试图片78</t>
-  </si>
-  <si>
-    <t>测试图片79</t>
-  </si>
-  <si>
-    <t>测试图片80</t>
-  </si>
-  <si>
-    <t>测试图片81</t>
-  </si>
-  <si>
-    <t>测试图片82</t>
-  </si>
-  <si>
-    <t>测试图片83</t>
-  </si>
-  <si>
-    <t>测试图片84</t>
-  </si>
-  <si>
-    <t>car</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>car3</t>
-  </si>
-  <si>
-    <t>car4</t>
-  </si>
-  <si>
-    <t>car5</t>
-  </si>
-  <si>
-    <t>car6</t>
-  </si>
-  <si>
-    <t>car7</t>
-  </si>
-  <si>
-    <t>car8</t>
-  </si>
-  <si>
-    <t>car9</t>
-  </si>
-  <si>
-    <t>car10</t>
-  </si>
-  <si>
-    <t>测试图片85</t>
-  </si>
-  <si>
-    <t>测试图片86</t>
-  </si>
-  <si>
-    <t>测试图片87</t>
-  </si>
-  <si>
-    <t>测试图片88</t>
-  </si>
-  <si>
-    <t>测试图片89</t>
-  </si>
-  <si>
-    <t>测试图片90</t>
-  </si>
-  <si>
-    <t>测试图片91</t>
-  </si>
-  <si>
-    <t>测试图片92</t>
-  </si>
-  <si>
-    <t>测试图片93</t>
-  </si>
-  <si>
-    <t>测试图片94</t>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>co1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>co2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>co3</t>
-  </si>
-  <si>
-    <t>co4</t>
-  </si>
-  <si>
-    <t>co5</t>
-  </si>
-  <si>
-    <t>co6</t>
-  </si>
-  <si>
-    <t>co7</t>
-  </si>
-  <si>
-    <t>co8</t>
-  </si>
-  <si>
-    <t>co9</t>
-  </si>
-  <si>
-    <t>co10</t>
-  </si>
-  <si>
-    <t>测试图片95</t>
-  </si>
-  <si>
-    <t>测试图片96</t>
-  </si>
-  <si>
-    <t>测试图片97</t>
-  </si>
-  <si>
-    <t>测试图片98</t>
-  </si>
-  <si>
-    <t>测试图片99</t>
-  </si>
-  <si>
-    <t>测试图片100</t>
-  </si>
-  <si>
-    <t>测试图片101</t>
-  </si>
-  <si>
-    <t>测试图片102</t>
-  </si>
-  <si>
-    <t>测试图片103</t>
-  </si>
-  <si>
-    <t>测试图片104</t>
-  </si>
-  <si>
-    <t>sea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sea1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sea2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sea3</t>
-  </si>
-  <si>
-    <t>sea4</t>
-  </si>
-  <si>
-    <t>sea5</t>
-  </si>
-  <si>
-    <t>sea6</t>
-  </si>
-  <si>
-    <t>sea7</t>
-  </si>
-  <si>
-    <t>sea8</t>
-  </si>
-  <si>
-    <t>sea9</t>
-  </si>
-  <si>
-    <t>sea10</t>
-  </si>
-  <si>
-    <t>测试图片105</t>
-  </si>
-  <si>
-    <t>测试图片106</t>
-  </si>
-  <si>
-    <t>测试图片107</t>
-  </si>
-  <si>
-    <t>测试图片108</t>
-  </si>
-  <si>
-    <t>测试图片109</t>
-  </si>
-  <si>
-    <t>测试图片110</t>
-  </si>
-  <si>
-    <t>测试图片111</t>
-  </si>
-  <si>
-    <t>测试图片112</t>
-  </si>
-  <si>
-    <t>测试图片113</t>
-  </si>
-  <si>
-    <t>测试图片114</t>
-  </si>
-  <si>
-    <t>photograph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>photograph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ys1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ys2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ys3</t>
-  </si>
-  <si>
-    <t>ys4</t>
-  </si>
-  <si>
-    <t>ys5</t>
-  </si>
-  <si>
-    <t>ys6</t>
-  </si>
-  <si>
-    <t>ys7</t>
-  </si>
-  <si>
-    <t>ys8</t>
-  </si>
-  <si>
-    <t>ys9</t>
-  </si>
-  <si>
-    <t>ys10</t>
-  </si>
-  <si>
-    <t>测试图片115</t>
-  </si>
-  <si>
-    <t>测试图片116</t>
-  </si>
-  <si>
-    <t>测试图片117</t>
-  </si>
-  <si>
-    <t>测试图片118</t>
-  </si>
-  <si>
-    <t>测试图片119</t>
-  </si>
-  <si>
-    <t>测试图片120</t>
-  </si>
-  <si>
-    <t>测试图片121</t>
-  </si>
-  <si>
-    <t>测试图片122</t>
-  </si>
-  <si>
-    <t>测试图片123</t>
-  </si>
-  <si>
-    <t>测试图片124</t>
   </si>
   <si>
     <t>push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1313,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1322,7 +750,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -1332,9 +759,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1664,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1678,64 +1102,64 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1752,7 +1176,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>358</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
         <v>15</v>
@@ -1772,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>359</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1">
         <v>24</v>
@@ -1792,7 +1216,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1">
         <v>40</v>
@@ -1812,7 +1236,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1">
         <v>60</v>
@@ -1832,7 +1256,7 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>361</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1">
         <v>84</v>
@@ -1852,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1868,133 +1292,159 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>688</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2024,45 +1474,45 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2070,109 +1520,109 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2190,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105:F114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2199,69 +1649,69 @@
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="4" width="19.1640625" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2269,13 +1719,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>1</v>
@@ -2286,13 +1733,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
@@ -2306,13 +1750,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>0</v>
@@ -2326,13 +1767,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="b">
         <v>0</v>
@@ -2346,13 +1784,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1" t="b">
         <v>0</v>
@@ -2366,13 +1801,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E10" s="1" t="b">
         <v>0</v>
@@ -2386,13 +1818,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1" t="b">
         <v>0</v>
@@ -2406,13 +1835,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1" t="b">
         <v>0</v>
@@ -2426,13 +1852,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E13" s="1" t="b">
         <v>0</v>
@@ -2446,13 +1869,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="b">
         <v>0</v>
@@ -2466,13 +1886,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1" t="b">
         <v>1</v>
@@ -2483,13 +1900,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E16" s="1" t="b">
         <v>0</v>
@@ -2503,13 +1917,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>0</v>
@@ -2523,13 +1934,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E18" s="1" t="b">
         <v>0</v>
@@ -2543,13 +1951,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>104</v>
-      </c>
-      <c r="C19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" t="s">
-        <v>125</v>
       </c>
       <c r="E19" s="1" t="b">
         <v>0</v>
@@ -2563,13 +1968,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>0</v>
@@ -2583,13 +1985,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E21" s="1" t="b">
         <v>0</v>
@@ -2603,13 +2002,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1" t="b">
         <v>0</v>
@@ -2623,13 +2019,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E23" s="1" t="b">
         <v>0</v>
@@ -2643,13 +2036,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E24" s="1" t="b">
         <v>0</v>
@@ -2663,13 +2053,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="E25" s="1" t="b">
         <v>1</v>
@@ -2683,13 +2070,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="E26" s="1" t="b">
         <v>0</v>
@@ -2703,13 +2087,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="E27" s="1" t="b">
         <v>0</v>
@@ -2723,13 +2104,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="E28" s="1" t="b">
         <v>0</v>
@@ -2743,13 +2121,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="E29" s="1" t="b">
         <v>0</v>
@@ -2763,13 +2138,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="E30" s="1" t="b">
         <v>0</v>
@@ -2783,13 +2155,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="E31" s="1" t="b">
         <v>0</v>
@@ -2803,13 +2172,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="E32" s="1" t="b">
         <v>0</v>
@@ -2823,13 +2189,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="E33" s="1" t="b">
         <v>0</v>
@@ -2843,13 +2206,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E34" s="1" t="b">
         <v>0</v>
@@ -2863,13 +2223,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="E35" s="1" t="b">
         <v>1</v>
@@ -2883,13 +2240,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="E36" s="1" t="b">
         <v>0</v>
@@ -2903,13 +2257,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>0</v>
@@ -2923,13 +2274,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="E38" s="1" t="b">
         <v>0</v>
@@ -2943,13 +2291,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="E39" s="1" t="b">
         <v>0</v>
@@ -2963,13 +2308,10 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
-      </c>
-      <c r="D40" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>0</v>
@@ -2983,13 +2325,10 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="E41" s="1" t="b">
         <v>0</v>
@@ -3003,13 +2342,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="E42" s="1" t="b">
         <v>0</v>
@@ -3023,13 +2359,10 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="E43" s="1" t="b">
         <v>0</v>
@@ -3043,13 +2376,10 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
-      </c>
-      <c r="D44" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="E44" s="1" t="b">
         <v>0</v>
@@ -3063,13 +2393,10 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="E45" s="1" t="b">
         <v>1</v>
@@ -3080,13 +2407,10 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="E46" s="1" t="b">
         <v>0</v>
@@ -3100,13 +2424,10 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>200</v>
-      </c>
-      <c r="D47" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="E47" s="1" t="b">
         <v>0</v>
@@ -3120,13 +2441,10 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="E48" s="1" t="b">
         <v>0</v>
@@ -3140,13 +2458,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="E49" s="1" t="b">
         <v>0</v>
@@ -3160,13 +2475,10 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>203</v>
-      </c>
-      <c r="D50" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="E50" s="1" t="b">
         <v>0</v>
@@ -3180,13 +2492,10 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="E51" s="1" t="b">
         <v>0</v>
@@ -3200,13 +2509,10 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
-      </c>
-      <c r="D52" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="E52" s="1" t="b">
         <v>0</v>
@@ -3220,13 +2526,10 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
-      </c>
-      <c r="D53" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="E53" s="1" t="b">
         <v>0</v>
@@ -3240,13 +2543,10 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
-      </c>
-      <c r="D54" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="E54" s="1" t="b">
         <v>0</v>
@@ -3260,13 +2560,10 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
-      </c>
-      <c r="D55" t="s">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="E55" s="1" t="b">
         <v>1</v>
@@ -3277,13 +2574,10 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
-      </c>
-      <c r="D56" t="s">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="E56" s="1" t="b">
         <v>0</v>
@@ -3297,13 +2591,10 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>222</v>
-      </c>
-      <c r="D57" t="s">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="E57" s="1" t="b">
         <v>0</v>
@@ -3317,13 +2608,10 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" t="s">
-        <v>233</v>
+        <v>143</v>
       </c>
       <c r="E58" s="1" t="b">
         <v>0</v>
@@ -3337,13 +2625,10 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
-      </c>
-      <c r="D59" t="s">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="E59" s="1" t="b">
         <v>0</v>
@@ -3357,13 +2642,10 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>225</v>
-      </c>
-      <c r="D60" t="s">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="E60" s="1" t="b">
         <v>0</v>
@@ -3377,13 +2659,10 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>226</v>
-      </c>
-      <c r="D61" t="s">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="E61" s="1" t="b">
         <v>0</v>
@@ -3397,13 +2676,10 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
-      </c>
-      <c r="D62" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="E62" s="1" t="b">
         <v>0</v>
@@ -3417,13 +2693,10 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>228</v>
-      </c>
-      <c r="D63" t="s">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="E63" s="1" t="b">
         <v>0</v>
@@ -3437,13 +2710,10 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
-      </c>
-      <c r="D64" t="s">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="E64" s="1" t="b">
         <v>0</v>
@@ -3457,13 +2727,10 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>242</v>
-      </c>
-      <c r="D65" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="E65" s="1" t="b">
         <v>1</v>
@@ -3474,13 +2741,10 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>243</v>
-      </c>
-      <c r="D66" t="s">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="E66" s="1" t="b">
         <v>0</v>
@@ -3494,13 +2758,10 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>244</v>
-      </c>
-      <c r="D67" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="E67" s="1" t="b">
         <v>0</v>
@@ -3514,13 +2775,10 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
-      </c>
-      <c r="D68" t="s">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="E68" s="1" t="b">
         <v>0</v>
@@ -3534,13 +2792,10 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>246</v>
-      </c>
-      <c r="D69" t="s">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="E69" s="1" t="b">
         <v>0</v>
@@ -3554,13 +2809,10 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>247</v>
-      </c>
-      <c r="D70" t="s">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="E70" s="1" t="b">
         <v>0</v>
@@ -3574,13 +2826,10 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>248</v>
-      </c>
-      <c r="D71" t="s">
-        <v>258</v>
+        <v>156</v>
       </c>
       <c r="E71" s="1" t="b">
         <v>0</v>
@@ -3594,13 +2843,10 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
-        <v>249</v>
-      </c>
-      <c r="D72" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="E72" s="1" t="b">
         <v>0</v>
@@ -3614,13 +2860,10 @@
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>250</v>
-      </c>
-      <c r="D73" t="s">
-        <v>260</v>
+        <v>158</v>
       </c>
       <c r="E73" s="1" t="b">
         <v>0</v>
@@ -3634,13 +2877,10 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
-        <v>251</v>
-      </c>
-      <c r="D74" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="E74" s="1" t="b">
         <v>0</v>
@@ -3654,13 +2894,10 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>263</v>
-      </c>
-      <c r="D75" t="s">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="E75" s="1" t="b">
         <v>1</v>
@@ -3671,13 +2908,10 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
-        <v>264</v>
-      </c>
-      <c r="D76" t="s">
-        <v>274</v>
+        <v>161</v>
       </c>
       <c r="E76" s="1" t="b">
         <v>0</v>
@@ -3691,13 +2925,10 @@
         <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="C77" t="s">
-        <v>265</v>
-      </c>
-      <c r="D77" t="s">
-        <v>275</v>
+        <v>162</v>
       </c>
       <c r="E77" s="1" t="b">
         <v>0</v>
@@ -3711,13 +2942,10 @@
         <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="C78" t="s">
-        <v>266</v>
-      </c>
-      <c r="D78" t="s">
-        <v>276</v>
+        <v>163</v>
       </c>
       <c r="E78" s="1" t="b">
         <v>0</v>
@@ -3731,13 +2959,10 @@
         <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="C79" t="s">
-        <v>267</v>
-      </c>
-      <c r="D79" t="s">
-        <v>277</v>
+        <v>164</v>
       </c>
       <c r="E79" s="1" t="b">
         <v>0</v>
@@ -3751,13 +2976,10 @@
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="C80" t="s">
-        <v>268</v>
-      </c>
-      <c r="D80" t="s">
-        <v>278</v>
+        <v>165</v>
       </c>
       <c r="E80" s="1" t="b">
         <v>0</v>
@@ -3771,13 +2993,10 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
-      </c>
-      <c r="D81" t="s">
-        <v>279</v>
+        <v>166</v>
       </c>
       <c r="E81" s="1" t="b">
         <v>0</v>
@@ -3791,13 +3010,10 @@
         <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="C82" t="s">
-        <v>270</v>
-      </c>
-      <c r="D82" t="s">
-        <v>280</v>
+        <v>167</v>
       </c>
       <c r="E82" s="1" t="b">
         <v>0</v>
@@ -3811,13 +3027,10 @@
         <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="C83" t="s">
-        <v>271</v>
-      </c>
-      <c r="D83" t="s">
-        <v>281</v>
+        <v>168</v>
       </c>
       <c r="E83" s="1" t="b">
         <v>0</v>
@@ -3831,13 +3044,10 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>272</v>
-      </c>
-      <c r="D84" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="E84" s="1" t="b">
         <v>0</v>
@@ -3851,13 +3061,10 @@
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="C85" t="s">
-        <v>285</v>
-      </c>
-      <c r="D85" t="s">
-        <v>295</v>
+        <v>170</v>
       </c>
       <c r="E85" s="1" t="b">
         <v>1</v>
@@ -3868,13 +3075,10 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="C86" t="s">
-        <v>286</v>
-      </c>
-      <c r="D86" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="E86" s="1" t="b">
         <v>0</v>
@@ -3888,13 +3092,10 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="C87" t="s">
-        <v>287</v>
-      </c>
-      <c r="D87" t="s">
-        <v>297</v>
+        <v>172</v>
       </c>
       <c r="E87" s="1" t="b">
         <v>0</v>
@@ -3908,13 +3109,10 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="C88" t="s">
-        <v>288</v>
-      </c>
-      <c r="D88" t="s">
-        <v>298</v>
+        <v>173</v>
       </c>
       <c r="E88" s="1" t="b">
         <v>0</v>
@@ -3928,13 +3126,10 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>289</v>
-      </c>
-      <c r="D89" t="s">
-        <v>299</v>
+        <v>174</v>
       </c>
       <c r="E89" s="1" t="b">
         <v>0</v>
@@ -3948,13 +3143,10 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="C90" t="s">
-        <v>290</v>
-      </c>
-      <c r="D90" t="s">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="E90" s="1" t="b">
         <v>0</v>
@@ -3968,13 +3160,10 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="C91" t="s">
-        <v>291</v>
-      </c>
-      <c r="D91" t="s">
-        <v>301</v>
+        <v>176</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>0</v>
@@ -3988,13 +3177,10 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="C92" t="s">
-        <v>292</v>
-      </c>
-      <c r="D92" t="s">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="E92" s="1" t="b">
         <v>0</v>
@@ -4008,13 +3194,10 @@
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="C93" t="s">
-        <v>293</v>
-      </c>
-      <c r="D93" t="s">
-        <v>303</v>
+        <v>178</v>
       </c>
       <c r="E93" s="1" t="b">
         <v>0</v>
@@ -4028,13 +3211,10 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="C94" t="s">
-        <v>294</v>
-      </c>
-      <c r="D94" t="s">
-        <v>304</v>
+        <v>179</v>
       </c>
       <c r="E94" s="1" t="b">
         <v>0</v>
@@ -4048,13 +3228,10 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="C95" t="s">
-        <v>307</v>
-      </c>
-      <c r="D95" t="s">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="E95" s="1" t="b">
         <v>1</v>
@@ -4065,13 +3242,10 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="C96" t="s">
-        <v>308</v>
-      </c>
-      <c r="D96" t="s">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="E96" s="1" t="b">
         <v>0</v>
@@ -4085,13 +3259,10 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="C97" t="s">
-        <v>309</v>
-      </c>
-      <c r="D97" t="s">
-        <v>319</v>
+        <v>182</v>
       </c>
       <c r="E97" s="1" t="b">
         <v>0</v>
@@ -4105,13 +3276,10 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="C98" t="s">
-        <v>310</v>
-      </c>
-      <c r="D98" t="s">
-        <v>320</v>
+        <v>183</v>
       </c>
       <c r="E98" s="1" t="b">
         <v>0</v>
@@ -4125,13 +3293,10 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="C99" t="s">
-        <v>311</v>
-      </c>
-      <c r="D99" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="E99" s="1" t="b">
         <v>0</v>
@@ -4145,13 +3310,10 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="C100" t="s">
-        <v>312</v>
-      </c>
-      <c r="D100" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="E100" s="1" t="b">
         <v>0</v>
@@ -4165,13 +3327,10 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="C101" t="s">
-        <v>313</v>
-      </c>
-      <c r="D101" t="s">
-        <v>323</v>
+        <v>186</v>
       </c>
       <c r="E101" s="1" t="b">
         <v>0</v>
@@ -4185,13 +3344,10 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>314</v>
-      </c>
-      <c r="D102" t="s">
-        <v>324</v>
+        <v>187</v>
       </c>
       <c r="E102" s="1" t="b">
         <v>0</v>
@@ -4205,13 +3361,10 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="C103" t="s">
-        <v>315</v>
-      </c>
-      <c r="D103" t="s">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="E103" s="1" t="b">
         <v>0</v>
@@ -4225,13 +3378,10 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="C104" t="s">
-        <v>316</v>
-      </c>
-      <c r="D104" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="E104" s="1" t="b">
         <v>0</v>
@@ -4245,13 +3395,10 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="C105" t="s">
-        <v>329</v>
-      </c>
-      <c r="D105" t="s">
-        <v>339</v>
+        <v>190</v>
       </c>
       <c r="E105" s="1" t="b">
         <v>1</v>
@@ -4262,13 +3409,10 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="C106" t="s">
-        <v>330</v>
-      </c>
-      <c r="D106" t="s">
-        <v>340</v>
+        <v>191</v>
       </c>
       <c r="E106" s="1" t="b">
         <v>0</v>
@@ -4282,13 +3426,10 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="C107" t="s">
-        <v>331</v>
-      </c>
-      <c r="D107" t="s">
-        <v>341</v>
+        <v>192</v>
       </c>
       <c r="E107" s="1" t="b">
         <v>0</v>
@@ -4302,13 +3443,10 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="C108" t="s">
-        <v>332</v>
-      </c>
-      <c r="D108" t="s">
-        <v>342</v>
+        <v>193</v>
       </c>
       <c r="E108" s="1" t="b">
         <v>0</v>
@@ -4322,13 +3460,10 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="C109" t="s">
-        <v>333</v>
-      </c>
-      <c r="D109" t="s">
-        <v>343</v>
+        <v>194</v>
       </c>
       <c r="E109" s="1" t="b">
         <v>0</v>
@@ -4342,13 +3477,10 @@
         <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="C110" t="s">
-        <v>334</v>
-      </c>
-      <c r="D110" t="s">
-        <v>344</v>
+        <v>195</v>
       </c>
       <c r="E110" s="1" t="b">
         <v>0</v>
@@ -4362,13 +3494,10 @@
         <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="C111" t="s">
-        <v>335</v>
-      </c>
-      <c r="D111" t="s">
-        <v>345</v>
+        <v>196</v>
       </c>
       <c r="E111" s="1" t="b">
         <v>0</v>
@@ -4382,13 +3511,10 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="C112" t="s">
-        <v>336</v>
-      </c>
-      <c r="D112" t="s">
-        <v>346</v>
+        <v>197</v>
       </c>
       <c r="E112" s="1" t="b">
         <v>0</v>
@@ -4402,13 +3528,10 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="C113" t="s">
-        <v>337</v>
-      </c>
-      <c r="D113" t="s">
-        <v>347</v>
+        <v>198</v>
       </c>
       <c r="E113" s="1" t="b">
         <v>0</v>
@@ -4422,13 +3545,10 @@
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="C114" t="s">
-        <v>338</v>
-      </c>
-      <c r="D114" t="s">
-        <v>348</v>
+        <v>199</v>
       </c>
       <c r="E114" s="1" t="b">
         <v>0</v>
@@ -4463,29 +3583,29 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4496,7 +3616,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4507,7 +3627,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4518,7 +3638,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4529,7 +3649,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4540,7 +3660,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4551,7 +3671,7 @@
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4562,12 +3682,12 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4593,45 +3713,45 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4655,23 +3775,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4769,58 +3889,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="6" width="10.83203125" style="1"/>
+    <col min="1" max="6" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>351</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>352</v>
+        <v>219</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>353</v>
+        <v>220</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>355</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4837,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>357</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4857,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>357</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25240" windowHeight="14540" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27260" windowHeight="15680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="level" sheetId="6" r:id="rId7"/>
     <sheet name="push" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="241">
   <si>
     <t>pice_slice</t>
   </si>
@@ -109,9 +109,6 @@
     <t>获得的金币</t>
   </si>
   <si>
-    <t>价格（rnb）</t>
-  </si>
-  <si>
     <t>tag第一行文字</t>
   </si>
   <si>
@@ -694,10 +691,83 @@
     <t>text</t>
   </si>
   <si>
-    <t>标题</t>
-  </si>
-  <si>
-    <t>内容</t>
+    <t>继续还未完成的拼图！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您有一幅拼图还待完成，快来接着完成吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快来接着完成您未完成的拼图吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格（rmb）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk传入名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk传入描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500金币</t>
+  </si>
+  <si>
+    <t>1000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1276,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1288,14 +1358,16 @@
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1314,8 +1386,14 @@
       <c r="F2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1334,8 +1412,14 @@
       <c r="F3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1343,16 +1427,22 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1360,15 +1450,21 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1376,15 +1472,21 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1392,59 +1494,83 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D9" s="3">
         <v>10</v>
       </c>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3">
         <v>12</v>
       </c>
       <c r="E10" s="3"/>
+      <c r="G10" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" t="s">
+        <v>236</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1474,7 +1600,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1493,136 +1619,136 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
         <v>73</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1780,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1665,13 +1791,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -1685,33 +1811,33 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
         <v>85</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>86</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1719,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>1</v>
@@ -1733,10 +1859,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
@@ -1750,10 +1876,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>0</v>
@@ -1767,10 +1893,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="b">
         <v>0</v>
@@ -1784,10 +1910,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1" t="b">
         <v>0</v>
@@ -1801,10 +1927,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1" t="b">
         <v>0</v>
@@ -1818,10 +1944,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="b">
         <v>0</v>
@@ -1835,10 +1961,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="1" t="b">
         <v>0</v>
@@ -1852,10 +1978,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="1" t="b">
         <v>0</v>
@@ -1869,10 +1995,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1" t="b">
         <v>0</v>
@@ -1886,10 +2012,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1" t="b">
         <v>1</v>
@@ -1900,10 +2026,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="b">
         <v>0</v>
@@ -1917,10 +2043,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>0</v>
@@ -1934,10 +2060,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="1" t="b">
         <v>0</v>
@@ -1951,10 +2077,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="1" t="b">
         <v>0</v>
@@ -1968,10 +2094,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>0</v>
@@ -1985,10 +2111,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="1" t="b">
         <v>0</v>
@@ -2002,10 +2128,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="1" t="b">
         <v>0</v>
@@ -2019,10 +2145,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="1" t="b">
         <v>0</v>
@@ -2036,10 +2162,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="1" t="b">
         <v>0</v>
@@ -2053,10 +2179,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" s="1" t="b">
         <v>1</v>
@@ -2070,10 +2196,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="1" t="b">
         <v>0</v>
@@ -2087,10 +2213,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" s="1" t="b">
         <v>0</v>
@@ -2104,10 +2230,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E28" s="1" t="b">
         <v>0</v>
@@ -2121,10 +2247,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E29" s="1" t="b">
         <v>0</v>
@@ -2138,10 +2264,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E30" s="1" t="b">
         <v>0</v>
@@ -2155,10 +2281,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" s="1" t="b">
         <v>0</v>
@@ -2172,10 +2298,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" s="1" t="b">
         <v>0</v>
@@ -2189,10 +2315,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E33" s="1" t="b">
         <v>0</v>
@@ -2206,10 +2332,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" s="1" t="b">
         <v>0</v>
@@ -2223,10 +2349,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" s="1" t="b">
         <v>1</v>
@@ -2240,10 +2366,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E36" s="1" t="b">
         <v>0</v>
@@ -2257,10 +2383,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>0</v>
@@ -2274,10 +2400,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38" s="1" t="b">
         <v>0</v>
@@ -2291,10 +2417,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39" s="1" t="b">
         <v>0</v>
@@ -2308,10 +2434,10 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>0</v>
@@ -2325,10 +2451,10 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" s="1" t="b">
         <v>0</v>
@@ -2342,10 +2468,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" s="1" t="b">
         <v>0</v>
@@ -2359,10 +2485,10 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E43" s="1" t="b">
         <v>0</v>
@@ -2376,10 +2502,10 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E44" s="1" t="b">
         <v>0</v>
@@ -2393,10 +2519,10 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E45" s="1" t="b">
         <v>1</v>
@@ -2407,10 +2533,10 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" s="1" t="b">
         <v>0</v>
@@ -2424,10 +2550,10 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" s="1" t="b">
         <v>0</v>
@@ -2441,10 +2567,10 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" s="1" t="b">
         <v>0</v>
@@ -2458,10 +2584,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E49" s="1" t="b">
         <v>0</v>
@@ -2475,10 +2601,10 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E50" s="1" t="b">
         <v>0</v>
@@ -2492,10 +2618,10 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E51" s="1" t="b">
         <v>0</v>
@@ -2509,10 +2635,10 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E52" s="1" t="b">
         <v>0</v>
@@ -2526,10 +2652,10 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E53" s="1" t="b">
         <v>0</v>
@@ -2543,10 +2669,10 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E54" s="1" t="b">
         <v>0</v>
@@ -2560,10 +2686,10 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E55" s="1" t="b">
         <v>1</v>
@@ -2574,10 +2700,10 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E56" s="1" t="b">
         <v>0</v>
@@ -2591,10 +2717,10 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E57" s="1" t="b">
         <v>0</v>
@@ -2608,10 +2734,10 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E58" s="1" t="b">
         <v>0</v>
@@ -2625,10 +2751,10 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E59" s="1" t="b">
         <v>0</v>
@@ -2642,10 +2768,10 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E60" s="1" t="b">
         <v>0</v>
@@ -2659,10 +2785,10 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E61" s="1" t="b">
         <v>0</v>
@@ -2676,10 +2802,10 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E62" s="1" t="b">
         <v>0</v>
@@ -2693,10 +2819,10 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E63" s="1" t="b">
         <v>0</v>
@@ -2710,10 +2836,10 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E64" s="1" t="b">
         <v>0</v>
@@ -2727,10 +2853,10 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E65" s="1" t="b">
         <v>1</v>
@@ -2741,10 +2867,10 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E66" s="1" t="b">
         <v>0</v>
@@ -2758,10 +2884,10 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E67" s="1" t="b">
         <v>0</v>
@@ -2775,10 +2901,10 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E68" s="1" t="b">
         <v>0</v>
@@ -2792,10 +2918,10 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E69" s="1" t="b">
         <v>0</v>
@@ -2809,10 +2935,10 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E70" s="1" t="b">
         <v>0</v>
@@ -2826,10 +2952,10 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E71" s="1" t="b">
         <v>0</v>
@@ -2843,10 +2969,10 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E72" s="1" t="b">
         <v>0</v>
@@ -2860,10 +2986,10 @@
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E73" s="1" t="b">
         <v>0</v>
@@ -2877,10 +3003,10 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E74" s="1" t="b">
         <v>0</v>
@@ -2894,10 +3020,10 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E75" s="1" t="b">
         <v>1</v>
@@ -2908,10 +3034,10 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E76" s="1" t="b">
         <v>0</v>
@@ -2925,10 +3051,10 @@
         <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E77" s="1" t="b">
         <v>0</v>
@@ -2942,10 +3068,10 @@
         <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E78" s="1" t="b">
         <v>0</v>
@@ -2959,10 +3085,10 @@
         <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E79" s="1" t="b">
         <v>0</v>
@@ -2976,10 +3102,10 @@
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E80" s="1" t="b">
         <v>0</v>
@@ -2993,10 +3119,10 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E81" s="1" t="b">
         <v>0</v>
@@ -3010,10 +3136,10 @@
         <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E82" s="1" t="b">
         <v>0</v>
@@ -3027,10 +3153,10 @@
         <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E83" s="1" t="b">
         <v>0</v>
@@ -3044,10 +3170,10 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E84" s="1" t="b">
         <v>0</v>
@@ -3061,10 +3187,10 @@
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E85" s="1" t="b">
         <v>1</v>
@@ -3075,10 +3201,10 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E86" s="1" t="b">
         <v>0</v>
@@ -3092,10 +3218,10 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E87" s="1" t="b">
         <v>0</v>
@@ -3109,10 +3235,10 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E88" s="1" t="b">
         <v>0</v>
@@ -3126,10 +3252,10 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E89" s="1" t="b">
         <v>0</v>
@@ -3143,10 +3269,10 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E90" s="1" t="b">
         <v>0</v>
@@ -3160,10 +3286,10 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>0</v>
@@ -3177,10 +3303,10 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C92" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E92" s="1" t="b">
         <v>0</v>
@@ -3194,10 +3320,10 @@
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E93" s="1" t="b">
         <v>0</v>
@@ -3211,10 +3337,10 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C94" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E94" s="1" t="b">
         <v>0</v>
@@ -3228,10 +3354,10 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E95" s="1" t="b">
         <v>1</v>
@@ -3242,10 +3368,10 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E96" s="1" t="b">
         <v>0</v>
@@ -3259,10 +3385,10 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C97" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E97" s="1" t="b">
         <v>0</v>
@@ -3276,10 +3402,10 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E98" s="1" t="b">
         <v>0</v>
@@ -3293,10 +3419,10 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C99" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E99" s="1" t="b">
         <v>0</v>
@@ -3310,10 +3436,10 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C100" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E100" s="1" t="b">
         <v>0</v>
@@ -3327,10 +3453,10 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E101" s="1" t="b">
         <v>0</v>
@@ -3344,10 +3470,10 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E102" s="1" t="b">
         <v>0</v>
@@ -3361,10 +3487,10 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C103" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E103" s="1" t="b">
         <v>0</v>
@@ -3378,10 +3504,10 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E104" s="1" t="b">
         <v>0</v>
@@ -3395,10 +3521,10 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C105" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E105" s="1" t="b">
         <v>1</v>
@@ -3409,10 +3535,10 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E106" s="1" t="b">
         <v>0</v>
@@ -3426,10 +3552,10 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E107" s="1" t="b">
         <v>0</v>
@@ -3443,10 +3569,10 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C108" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E108" s="1" t="b">
         <v>0</v>
@@ -3460,10 +3586,10 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E109" s="1" t="b">
         <v>0</v>
@@ -3477,10 +3603,10 @@
         <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E110" s="1" t="b">
         <v>0</v>
@@ -3494,10 +3620,10 @@
         <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C111" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E111" s="1" t="b">
         <v>0</v>
@@ -3511,10 +3637,10 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E112" s="1" t="b">
         <v>0</v>
@@ -3528,10 +3654,10 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C113" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E113" s="1" t="b">
         <v>0</v>
@@ -3545,10 +3671,10 @@
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C114" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E114" s="1" t="b">
         <v>0</v>
@@ -3583,7 +3709,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3605,7 +3731,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3616,7 +3742,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3627,7 +3753,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3638,7 +3764,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3649,7 +3775,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3660,7 +3786,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3671,7 +3797,7 @@
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3682,7 +3808,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3713,7 +3839,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3729,23 +3855,23 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
         <v>211</v>
-      </c>
-      <c r="B5" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" t="s">
         <v>213</v>
-      </c>
-      <c r="B6" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3775,7 +3901,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3791,7 +3917,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3889,18 +4015,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="6" width="11" style="1"/>
+    <col min="1" max="4" width="11" style="1"/>
+    <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3928,19 +4056,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3948,19 +4076,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3968,16 +4096,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>223</v>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27260" windowHeight="15680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27260" windowHeight="15680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="240">
   <si>
     <t>pice_slice</t>
   </si>
@@ -166,102 +166,36 @@
     <t>nature</t>
   </si>
   <si>
-    <t>自然</t>
-  </si>
-  <si>
-    <t>亲近大自然</t>
-  </si>
-  <si>
     <t>animal</t>
   </si>
   <si>
-    <t>动物</t>
-  </si>
-  <si>
-    <t>小小动物萌翻天</t>
-  </si>
-  <si>
     <t>building</t>
   </si>
   <si>
-    <t>建筑</t>
-  </si>
-  <si>
-    <t>人类辉煌的建筑奇迹</t>
-  </si>
-  <si>
     <t>draing</t>
   </si>
   <si>
-    <t>名画</t>
-  </si>
-  <si>
-    <t>世界顶级名画</t>
-  </si>
-  <si>
     <t>confucianism</t>
   </si>
   <si>
-    <t>马赛克艺术</t>
-  </si>
-  <si>
-    <t>欣赏不一样的艺术</t>
-  </si>
-  <si>
     <t>sunrising</t>
   </si>
   <si>
-    <t>夏季日出</t>
-  </si>
-  <si>
-    <t>感受阳光</t>
-  </si>
-  <si>
     <t>beach</t>
   </si>
   <si>
-    <t>海滩风景</t>
-  </si>
-  <si>
-    <t>不一样的海风</t>
-  </si>
-  <si>
     <t>car</t>
   </si>
   <si>
-    <t>名车</t>
-  </si>
-  <si>
-    <t>欣赏世界名车</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
-    <t>色彩艺术</t>
-  </si>
-  <si>
-    <t>感受不同色彩带来的视觉盛宴</t>
-  </si>
-  <si>
     <t>sea</t>
   </si>
   <si>
-    <t>海底世界</t>
-  </si>
-  <si>
-    <t>蓝色大海，让人窒息</t>
-  </si>
-  <si>
     <t>photograph</t>
   </si>
   <si>
-    <t>移轴摄影</t>
-  </si>
-  <si>
-    <t>模型般的感觉</t>
-  </si>
-  <si>
     <t>pic</t>
   </si>
   <si>
@@ -661,13 +595,7 @@
     <t>lack_of_gold</t>
   </si>
   <si>
-    <t>金币不足</t>
-  </si>
-  <si>
     <t>comment</t>
-  </si>
-  <si>
-    <t>评论即送40金币!</t>
   </si>
   <si>
     <t>level</t>
@@ -731,50 +659,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>500金币</t>
-  </si>
-  <si>
-    <t>1000金币</t>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Famous paintings</t>
+  </si>
+  <si>
+    <t>Mosaic art</t>
+  </si>
+  <si>
+    <t>Summer Sunset</t>
+  </si>
+  <si>
+    <t>Beach scenery</t>
+  </si>
+  <si>
+    <t>Famous cars</t>
+  </si>
+  <si>
+    <t>Color art</t>
+  </si>
+  <si>
+    <t>Underwater world</t>
+  </si>
+  <si>
+    <t>Shifting axis photography</t>
+  </si>
+  <si>
+    <t>Be close to nature</t>
+  </si>
+  <si>
+    <t>small animal so cute</t>
+  </si>
+  <si>
+    <t>Man’s miraculous architecture</t>
+  </si>
+  <si>
+    <t>The best paintings in the world</t>
+  </si>
+  <si>
+    <t>Appreciate different art</t>
+  </si>
+  <si>
+    <t>feel the sun</t>
+  </si>
+  <si>
+    <t>Different Sea breeze</t>
+  </si>
+  <si>
+    <t>Appreciate the best cars in the world</t>
+  </si>
+  <si>
+    <t>Feel the visual feast of different colors</t>
+  </si>
+  <si>
+    <t>Blue sea ,makes you crazy</t>
+  </si>
+  <si>
+    <t>Model feeling</t>
+  </si>
+  <si>
+    <t>Need more coins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2000金币</t>
+    <t>500 Coins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3000金币</t>
+    <t>1000 Coins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15000金币</t>
+    <t>2000 Coins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20000金币</t>
+    <t>3000 Coins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>500金币</t>
+    <t>15000 Coins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000金币</t>
+    <t>20000 Coins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2000金币</t>
+    <t>500 Coins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3000金币</t>
+    <t>1000 Coins</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000 Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment for 40coins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -789,6 +787,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -811,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -820,6 +832,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -1158,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1348,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1387,10 +1401,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1413,10 +1427,10 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="H3" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1427,7 +1441,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1436,10 +1450,10 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="H4" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1458,10 +1472,10 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1480,10 +1494,10 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1502,10 +1516,10 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1524,10 +1538,10 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1545,10 +1559,10 @@
       </c>
       <c r="E9" s="3"/>
       <c r="G9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1566,10 +1580,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="G10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1588,7 +1602,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1634,121 +1648,121 @@
       <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
+      <c r="B5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
+        <v>52</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
+        <v>53</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
+        <v>54</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +1780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D5" sqref="D5:D114"/>
     </sheetView>
   </sheetViews>
@@ -1780,7 +1794,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1791,13 +1805,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -1811,33 +1825,33 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1845,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>1</v>
@@ -1859,10 +1873,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
@@ -1876,10 +1890,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>0</v>
@@ -1893,10 +1907,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="b">
         <v>0</v>
@@ -1910,10 +1924,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="b">
         <v>0</v>
@@ -1927,10 +1941,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1" t="b">
         <v>0</v>
@@ -1944,10 +1958,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="b">
         <v>0</v>
@@ -1961,10 +1975,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="b">
         <v>0</v>
@@ -1978,10 +1992,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1" t="b">
         <v>0</v>
@@ -1995,10 +2009,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1" t="b">
         <v>0</v>
@@ -2015,7 +2029,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1" t="b">
         <v>1</v>
@@ -2029,7 +2043,7 @@
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="b">
         <v>0</v>
@@ -2046,7 +2060,7 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>0</v>
@@ -2063,7 +2077,7 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1" t="b">
         <v>0</v>
@@ -2080,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E19" s="1" t="b">
         <v>0</v>
@@ -2097,7 +2111,7 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>0</v>
@@ -2114,7 +2128,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E21" s="1" t="b">
         <v>0</v>
@@ -2131,7 +2145,7 @@
         <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E22" s="1" t="b">
         <v>0</v>
@@ -2148,7 +2162,7 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E23" s="1" t="b">
         <v>0</v>
@@ -2165,7 +2179,7 @@
         <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E24" s="1" t="b">
         <v>0</v>
@@ -2179,10 +2193,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E25" s="1" t="b">
         <v>1</v>
@@ -2196,10 +2210,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E26" s="1" t="b">
         <v>0</v>
@@ -2213,10 +2227,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E27" s="1" t="b">
         <v>0</v>
@@ -2230,10 +2244,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E28" s="1" t="b">
         <v>0</v>
@@ -2247,10 +2261,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E29" s="1" t="b">
         <v>0</v>
@@ -2264,10 +2278,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E30" s="1" t="b">
         <v>0</v>
@@ -2281,10 +2295,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E31" s="1" t="b">
         <v>0</v>
@@ -2298,10 +2312,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E32" s="1" t="b">
         <v>0</v>
@@ -2315,10 +2329,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E33" s="1" t="b">
         <v>0</v>
@@ -2332,10 +2346,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E34" s="1" t="b">
         <v>0</v>
@@ -2349,10 +2363,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E35" s="1" t="b">
         <v>1</v>
@@ -2366,10 +2380,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E36" s="1" t="b">
         <v>0</v>
@@ -2383,10 +2397,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>0</v>
@@ -2400,10 +2414,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E38" s="1" t="b">
         <v>0</v>
@@ -2417,10 +2431,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E39" s="1" t="b">
         <v>0</v>
@@ -2434,10 +2448,10 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>0</v>
@@ -2451,10 +2465,10 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E41" s="1" t="b">
         <v>0</v>
@@ -2468,10 +2482,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E42" s="1" t="b">
         <v>0</v>
@@ -2485,10 +2499,10 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E43" s="1" t="b">
         <v>0</v>
@@ -2502,10 +2516,10 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E44" s="1" t="b">
         <v>0</v>
@@ -2519,10 +2533,10 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E45" s="1" t="b">
         <v>1</v>
@@ -2533,10 +2547,10 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E46" s="1" t="b">
         <v>0</v>
@@ -2550,10 +2564,10 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E47" s="1" t="b">
         <v>0</v>
@@ -2567,10 +2581,10 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E48" s="1" t="b">
         <v>0</v>
@@ -2584,10 +2598,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E49" s="1" t="b">
         <v>0</v>
@@ -2601,10 +2615,10 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E50" s="1" t="b">
         <v>0</v>
@@ -2618,10 +2632,10 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E51" s="1" t="b">
         <v>0</v>
@@ -2635,10 +2649,10 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E52" s="1" t="b">
         <v>0</v>
@@ -2652,10 +2666,10 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E53" s="1" t="b">
         <v>0</v>
@@ -2669,10 +2683,10 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E54" s="1" t="b">
         <v>0</v>
@@ -2686,10 +2700,10 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E55" s="1" t="b">
         <v>1</v>
@@ -2700,10 +2714,10 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="E56" s="1" t="b">
         <v>0</v>
@@ -2717,10 +2731,10 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E57" s="1" t="b">
         <v>0</v>
@@ -2734,10 +2748,10 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E58" s="1" t="b">
         <v>0</v>
@@ -2751,10 +2765,10 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E59" s="1" t="b">
         <v>0</v>
@@ -2768,10 +2782,10 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E60" s="1" t="b">
         <v>0</v>
@@ -2785,10 +2799,10 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E61" s="1" t="b">
         <v>0</v>
@@ -2802,10 +2816,10 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E62" s="1" t="b">
         <v>0</v>
@@ -2819,10 +2833,10 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E63" s="1" t="b">
         <v>0</v>
@@ -2836,10 +2850,10 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E64" s="1" t="b">
         <v>0</v>
@@ -2853,10 +2867,10 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E65" s="1" t="b">
         <v>1</v>
@@ -2867,10 +2881,10 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E66" s="1" t="b">
         <v>0</v>
@@ -2884,10 +2898,10 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E67" s="1" t="b">
         <v>0</v>
@@ -2901,10 +2915,10 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="E68" s="1" t="b">
         <v>0</v>
@@ -2918,10 +2932,10 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E69" s="1" t="b">
         <v>0</v>
@@ -2935,10 +2949,10 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E70" s="1" t="b">
         <v>0</v>
@@ -2952,10 +2966,10 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="E71" s="1" t="b">
         <v>0</v>
@@ -2969,10 +2983,10 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E72" s="1" t="b">
         <v>0</v>
@@ -2986,10 +3000,10 @@
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E73" s="1" t="b">
         <v>0</v>
@@ -3003,10 +3017,10 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E74" s="1" t="b">
         <v>0</v>
@@ -3020,10 +3034,10 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E75" s="1" t="b">
         <v>1</v>
@@ -3034,10 +3048,10 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E76" s="1" t="b">
         <v>0</v>
@@ -3051,10 +3065,10 @@
         <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E77" s="1" t="b">
         <v>0</v>
@@ -3068,10 +3082,10 @@
         <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E78" s="1" t="b">
         <v>0</v>
@@ -3085,10 +3099,10 @@
         <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E79" s="1" t="b">
         <v>0</v>
@@ -3102,10 +3116,10 @@
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E80" s="1" t="b">
         <v>0</v>
@@ -3119,10 +3133,10 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E81" s="1" t="b">
         <v>0</v>
@@ -3136,10 +3150,10 @@
         <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E82" s="1" t="b">
         <v>0</v>
@@ -3153,10 +3167,10 @@
         <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="E83" s="1" t="b">
         <v>0</v>
@@ -3170,10 +3184,10 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E84" s="1" t="b">
         <v>0</v>
@@ -3187,10 +3201,10 @@
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E85" s="1" t="b">
         <v>1</v>
@@ -3201,10 +3215,10 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E86" s="1" t="b">
         <v>0</v>
@@ -3218,10 +3232,10 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="E87" s="1" t="b">
         <v>0</v>
@@ -3235,10 +3249,10 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C88" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="E88" s="1" t="b">
         <v>0</v>
@@ -3252,10 +3266,10 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C89" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E89" s="1" t="b">
         <v>0</v>
@@ -3269,10 +3283,10 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="E90" s="1" t="b">
         <v>0</v>
@@ -3286,10 +3300,10 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C91" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>0</v>
@@ -3303,10 +3317,10 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="E92" s="1" t="b">
         <v>0</v>
@@ -3320,10 +3334,10 @@
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E93" s="1" t="b">
         <v>0</v>
@@ -3337,10 +3351,10 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C94" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="E94" s="1" t="b">
         <v>0</v>
@@ -3354,10 +3368,10 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C95" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E95" s="1" t="b">
         <v>1</v>
@@ -3368,10 +3382,10 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C96" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E96" s="1" t="b">
         <v>0</v>
@@ -3385,10 +3399,10 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C97" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E97" s="1" t="b">
         <v>0</v>
@@ -3402,10 +3416,10 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C98" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E98" s="1" t="b">
         <v>0</v>
@@ -3419,10 +3433,10 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C99" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E99" s="1" t="b">
         <v>0</v>
@@ -3436,10 +3450,10 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C100" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E100" s="1" t="b">
         <v>0</v>
@@ -3453,10 +3467,10 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C101" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E101" s="1" t="b">
         <v>0</v>
@@ -3470,10 +3484,10 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C102" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E102" s="1" t="b">
         <v>0</v>
@@ -3487,10 +3501,10 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C103" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E103" s="1" t="b">
         <v>0</v>
@@ -3504,10 +3518,10 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C104" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E104" s="1" t="b">
         <v>0</v>
@@ -3521,10 +3535,10 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C105" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E105" s="1" t="b">
         <v>1</v>
@@ -3535,10 +3549,10 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C106" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="E106" s="1" t="b">
         <v>0</v>
@@ -3552,10 +3566,10 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C107" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="E107" s="1" t="b">
         <v>0</v>
@@ -3569,10 +3583,10 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C108" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E108" s="1" t="b">
         <v>0</v>
@@ -3586,10 +3600,10 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C109" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="E109" s="1" t="b">
         <v>0</v>
@@ -3603,10 +3617,10 @@
         <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C110" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E110" s="1" t="b">
         <v>0</v>
@@ -3620,10 +3634,10 @@
         <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C111" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E111" s="1" t="b">
         <v>0</v>
@@ -3637,10 +3651,10 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C112" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E112" s="1" t="b">
         <v>0</v>
@@ -3654,10 +3668,10 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C113" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E113" s="1" t="b">
         <v>0</v>
@@ -3671,10 +3685,10 @@
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C114" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E114" s="1" t="b">
         <v>0</v>
@@ -3709,7 +3723,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3731,7 +3745,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3742,7 +3756,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3753,7 +3767,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3764,7 +3778,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3775,7 +3789,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3786,7 +3800,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3797,7 +3811,7 @@
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3808,7 +3822,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3828,7 +3842,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3839,7 +3853,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3855,23 +3869,23 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" t="s">
-        <v>211</v>
+        <v>188</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" t="s">
-        <v>213</v>
+        <v>189</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3901,7 +3915,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3917,7 +3931,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4016,7 +4030,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4028,7 +4042,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4056,19 +4070,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4085,10 +4099,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4105,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1480" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="262">
   <si>
     <t>pice_slice</t>
   </si>
@@ -139,102 +139,36 @@
     <t>nature</t>
   </si>
   <si>
-    <t>自然</t>
-  </si>
-  <si>
-    <t>亲近大自然</t>
-  </si>
-  <si>
     <t>animal</t>
   </si>
   <si>
-    <t>动物</t>
-  </si>
-  <si>
-    <t>小小动物萌翻天</t>
-  </si>
-  <si>
     <t>building</t>
   </si>
   <si>
-    <t>建筑</t>
-  </si>
-  <si>
-    <t>人类辉煌的建筑奇迹</t>
-  </si>
-  <si>
     <t>draing</t>
   </si>
   <si>
-    <t>名画</t>
-  </si>
-  <si>
-    <t>世界顶级名画</t>
-  </si>
-  <si>
     <t>confucianism</t>
   </si>
   <si>
-    <t>马赛克艺术</t>
-  </si>
-  <si>
-    <t>欣赏不一样的艺术</t>
-  </si>
-  <si>
     <t>sunrising</t>
   </si>
   <si>
-    <t>夏季日出</t>
-  </si>
-  <si>
-    <t>感受阳光</t>
-  </si>
-  <si>
     <t>beach</t>
   </si>
   <si>
-    <t>海滩风景</t>
-  </si>
-  <si>
-    <t>不一样的海风</t>
-  </si>
-  <si>
     <t>car</t>
   </si>
   <si>
-    <t>名车</t>
-  </si>
-  <si>
-    <t>欣赏世界名车</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
-    <t>色彩艺术</t>
-  </si>
-  <si>
-    <t>感受不同色彩带来的视觉盛宴</t>
-  </si>
-  <si>
     <t>sea</t>
   </si>
   <si>
-    <t>海底世界</t>
-  </si>
-  <si>
-    <t>蓝色大海，让人窒息</t>
-  </si>
-  <si>
     <t>photograph</t>
   </si>
   <si>
-    <t>移轴摄影</t>
-  </si>
-  <si>
-    <t>模型般的感觉</t>
-  </si>
-  <si>
     <t>pic</t>
   </si>
   <si>
@@ -634,15 +568,9 @@
     <t>lack_of_gold</t>
   </si>
   <si>
-    <t>金币不足</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
-    <t>评论即送40金币!</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
@@ -704,29 +632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>500金币</t>
-  </si>
-  <si>
-    <t>1000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guide1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -735,50 +640,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>领取每日奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择动物分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guide3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择第一张可爱的图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guide4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开始游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guide5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从边角开始拼\n可以降低难度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -791,30 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -843,15 +692,170 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>去除广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REMOVE_AD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>去除广告</t>
+    <t>500 Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000 Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000 Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000 Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000 Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000 Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000 Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000 Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000 Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>remove AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Famous paintings</t>
+  </si>
+  <si>
+    <t>Mosaic art</t>
+  </si>
+  <si>
+    <t>Summer Sunset</t>
+  </si>
+  <si>
+    <t>Beach scenery</t>
+  </si>
+  <si>
+    <t>Famous cars</t>
+  </si>
+  <si>
+    <t>Color art</t>
+  </si>
+  <si>
+    <t>Underwater world</t>
+  </si>
+  <si>
+    <t>Shifting axis photography</t>
+  </si>
+  <si>
+    <t>Be close to nature</t>
+  </si>
+  <si>
+    <t>small animal so cute</t>
+  </si>
+  <si>
+    <t>Man’s miraculous architecture</t>
+  </si>
+  <si>
+    <t>The best paintings in the world</t>
+  </si>
+  <si>
+    <t>Appreciate different art</t>
+  </si>
+  <si>
+    <t>feel the sun</t>
+  </si>
+  <si>
+    <t>Different Sea breeze</t>
+  </si>
+  <si>
+    <t>Appreciate the best cars in the world</t>
+  </si>
+  <si>
+    <t>Feel the visual feast of different colors</t>
+  </si>
+  <si>
+    <t>Blue sea ,makes you crazy</t>
+  </si>
+  <si>
+    <t>Model feeling</t>
+  </si>
+  <si>
+    <t>Need more coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment for 40coins</t>
+  </si>
+  <si>
+    <t>Receive daily rewards</t>
+  </si>
+  <si>
+    <t>Select animal classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choose the first cute picture</t>
+  </si>
+  <si>
+    <t>Start the game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start from corners \ncan reduce the difficulty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,7 +863,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -893,6 +897,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -918,7 +936,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -930,9 +948,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -1465,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1504,16 +1521,16 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="H2" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="I2" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="J2" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1536,16 +1553,16 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="H3" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="I3" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="J3" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1556,7 +1573,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1565,16 +1582,16 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="H4" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="I4" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="J4" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1585,19 +1602,19 @@
         <v>-1</v>
       </c>
       <c r="D5" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="H5" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="I5" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="J5" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1610,16 +1627,16 @@
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>238</v>
+      <c r="D6" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="H6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1632,16 +1649,16 @@
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>239</v>
+      <c r="D7" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1654,16 +1671,16 @@
       <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>240</v>
+      <c r="D8" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1671,21 +1688,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>244</v>
+        <v>203</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1693,20 +1710,20 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>245</v>
+        <v>204</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H10" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1714,20 +1731,20 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>246</v>
+        <v>205</v>
+      </c>
+      <c r="D11" s="3">
+        <v>12</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="H11" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1763,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C15" sqref="C5:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1792,121 +1809,121 @@
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
+      <c r="B5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
+        <v>44</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
+        <v>45</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
+        <v>46</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1955,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1949,13 +1966,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -1969,33 +1986,33 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2003,10 +2020,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>1</v>
@@ -2017,10 +2034,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
@@ -2034,10 +2051,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>0</v>
@@ -2051,10 +2068,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="b">
         <v>0</v>
@@ -2068,10 +2085,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="b">
         <v>0</v>
@@ -2085,10 +2102,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="b">
         <v>0</v>
@@ -2102,10 +2119,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="b">
         <v>0</v>
@@ -2119,10 +2136,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1" t="b">
         <v>0</v>
@@ -2136,10 +2153,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="b">
         <v>0</v>
@@ -2153,10 +2170,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="b">
         <v>0</v>
@@ -2173,7 +2190,7 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="b">
         <v>1</v>
@@ -2187,7 +2204,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1" t="b">
         <v>0</v>
@@ -2204,7 +2221,7 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>0</v>
@@ -2221,7 +2238,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1" t="b">
         <v>0</v>
@@ -2238,7 +2255,7 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="b">
         <v>0</v>
@@ -2255,7 +2272,7 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>0</v>
@@ -2272,7 +2289,7 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1" t="b">
         <v>0</v>
@@ -2289,7 +2306,7 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1" t="b">
         <v>0</v>
@@ -2306,7 +2323,7 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1" t="b">
         <v>0</v>
@@ -2323,7 +2340,7 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E24" s="1" t="b">
         <v>0</v>
@@ -2337,10 +2354,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E25" s="1" t="b">
         <v>1</v>
@@ -2351,10 +2368,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="b">
         <v>0</v>
@@ -2368,10 +2385,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E27" s="1" t="b">
         <v>0</v>
@@ -2385,10 +2402,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E28" s="1" t="b">
         <v>0</v>
@@ -2402,10 +2419,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="E29" s="1" t="b">
         <v>0</v>
@@ -2419,10 +2436,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E30" s="1" t="b">
         <v>0</v>
@@ -2436,10 +2453,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E31" s="1" t="b">
         <v>0</v>
@@ -2453,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E32" s="1" t="b">
         <v>0</v>
@@ -2470,10 +2487,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E33" s="1" t="b">
         <v>0</v>
@@ -2487,10 +2504,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E34" s="1" t="b">
         <v>0</v>
@@ -2504,10 +2521,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E35" s="1" t="b">
         <v>1</v>
@@ -2518,10 +2535,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E36" s="1" t="b">
         <v>0</v>
@@ -2535,10 +2552,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>0</v>
@@ -2552,10 +2569,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="b">
         <v>0</v>
@@ -2569,10 +2586,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E39" s="1" t="b">
         <v>0</v>
@@ -2586,10 +2603,10 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>0</v>
@@ -2603,10 +2620,10 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E41" s="1" t="b">
         <v>0</v>
@@ -2620,10 +2637,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E42" s="1" t="b">
         <v>0</v>
@@ -2637,10 +2654,10 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E43" s="1" t="b">
         <v>0</v>
@@ -2654,10 +2671,10 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E44" s="1" t="b">
         <v>0</v>
@@ -2671,10 +2688,10 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E45" s="1" t="b">
         <v>1</v>
@@ -2685,10 +2702,10 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E46" s="1" t="b">
         <v>0</v>
@@ -2702,10 +2719,10 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E47" s="1" t="b">
         <v>0</v>
@@ -2719,10 +2736,10 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E48" s="1" t="b">
         <v>0</v>
@@ -2736,10 +2753,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E49" s="1" t="b">
         <v>0</v>
@@ -2753,10 +2770,10 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E50" s="1" t="b">
         <v>0</v>
@@ -2770,10 +2787,10 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E51" s="1" t="b">
         <v>0</v>
@@ -2787,10 +2804,10 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E52" s="1" t="b">
         <v>0</v>
@@ -2804,10 +2821,10 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E53" s="1" t="b">
         <v>0</v>
@@ -2821,10 +2838,10 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E54" s="1" t="b">
         <v>0</v>
@@ -2838,10 +2855,10 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E55" s="1" t="b">
         <v>1</v>
@@ -2852,10 +2869,10 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E56" s="1" t="b">
         <v>0</v>
@@ -2869,10 +2886,10 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E57" s="1" t="b">
         <v>0</v>
@@ -2886,10 +2903,10 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E58" s="1" t="b">
         <v>0</v>
@@ -2903,10 +2920,10 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E59" s="1" t="b">
         <v>0</v>
@@ -2920,10 +2937,10 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E60" s="1" t="b">
         <v>0</v>
@@ -2937,10 +2954,10 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E61" s="1" t="b">
         <v>0</v>
@@ -2954,10 +2971,10 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E62" s="1" t="b">
         <v>0</v>
@@ -2971,10 +2988,10 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E63" s="1" t="b">
         <v>0</v>
@@ -2988,10 +3005,10 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E64" s="1" t="b">
         <v>0</v>
@@ -3005,10 +3022,10 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="E65" s="1" t="b">
         <v>1</v>
@@ -3019,10 +3036,10 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E66" s="1" t="b">
         <v>0</v>
@@ -3036,10 +3053,10 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E67" s="1" t="b">
         <v>0</v>
@@ -3053,10 +3070,10 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E68" s="1" t="b">
         <v>0</v>
@@ -3070,10 +3087,10 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E69" s="1" t="b">
         <v>0</v>
@@ -3087,10 +3104,10 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E70" s="1" t="b">
         <v>0</v>
@@ -3104,10 +3121,10 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E71" s="1" t="b">
         <v>0</v>
@@ -3121,10 +3138,10 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E72" s="1" t="b">
         <v>0</v>
@@ -3138,10 +3155,10 @@
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E73" s="1" t="b">
         <v>0</v>
@@ -3155,10 +3172,10 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E74" s="1" t="b">
         <v>0</v>
@@ -3172,10 +3189,10 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E75" s="1" t="b">
         <v>1</v>
@@ -3186,10 +3203,10 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E76" s="1" t="b">
         <v>0</v>
@@ -3203,10 +3220,10 @@
         <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="E77" s="1" t="b">
         <v>0</v>
@@ -3220,10 +3237,10 @@
         <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E78" s="1" t="b">
         <v>0</v>
@@ -3237,10 +3254,10 @@
         <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E79" s="1" t="b">
         <v>0</v>
@@ -3254,10 +3271,10 @@
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="E80" s="1" t="b">
         <v>0</v>
@@ -3271,10 +3288,10 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E81" s="1" t="b">
         <v>0</v>
@@ -3288,10 +3305,10 @@
         <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E82" s="1" t="b">
         <v>0</v>
@@ -3305,10 +3322,10 @@
         <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E83" s="1" t="b">
         <v>0</v>
@@ -3322,10 +3339,10 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E84" s="1" t="b">
         <v>0</v>
@@ -3339,10 +3356,10 @@
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E85" s="1" t="b">
         <v>1</v>
@@ -3353,10 +3370,10 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C86" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E86" s="1" t="b">
         <v>0</v>
@@ -3370,10 +3387,10 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E87" s="1" t="b">
         <v>0</v>
@@ -3387,10 +3404,10 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E88" s="1" t="b">
         <v>0</v>
@@ -3404,10 +3421,10 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C89" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E89" s="1" t="b">
         <v>0</v>
@@ -3421,10 +3438,10 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C90" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E90" s="1" t="b">
         <v>0</v>
@@ -3438,10 +3455,10 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>0</v>
@@ -3455,10 +3472,10 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="E92" s="1" t="b">
         <v>0</v>
@@ -3472,10 +3489,10 @@
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E93" s="1" t="b">
         <v>0</v>
@@ -3489,10 +3506,10 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E94" s="1" t="b">
         <v>0</v>
@@ -3506,10 +3523,10 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E95" s="1" t="b">
         <v>1</v>
@@ -3520,10 +3537,10 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C96" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="E96" s="1" t="b">
         <v>0</v>
@@ -3537,10 +3554,10 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C97" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="E97" s="1" t="b">
         <v>0</v>
@@ -3554,10 +3571,10 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C98" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E98" s="1" t="b">
         <v>0</v>
@@ -3571,10 +3588,10 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C99" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="E99" s="1" t="b">
         <v>0</v>
@@ -3588,10 +3605,10 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="E100" s="1" t="b">
         <v>0</v>
@@ -3605,10 +3622,10 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C101" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="E101" s="1" t="b">
         <v>0</v>
@@ -3622,10 +3639,10 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C102" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E102" s="1" t="b">
         <v>0</v>
@@ -3639,10 +3656,10 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C103" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="E103" s="1" t="b">
         <v>0</v>
@@ -3656,10 +3673,10 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C104" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E104" s="1" t="b">
         <v>0</v>
@@ -3673,10 +3690,10 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C105" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E105" s="1" t="b">
         <v>1</v>
@@ -3687,10 +3704,10 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C106" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E106" s="1" t="b">
         <v>0</v>
@@ -3704,10 +3721,10 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C107" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E107" s="1" t="b">
         <v>0</v>
@@ -3721,10 +3738,10 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C108" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E108" s="1" t="b">
         <v>0</v>
@@ -3738,10 +3755,10 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C109" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E109" s="1" t="b">
         <v>0</v>
@@ -3755,10 +3772,10 @@
         <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C110" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E110" s="1" t="b">
         <v>0</v>
@@ -3772,10 +3789,10 @@
         <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C111" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E111" s="1" t="b">
         <v>0</v>
@@ -3789,10 +3806,10 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E112" s="1" t="b">
         <v>0</v>
@@ -3806,10 +3823,10 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C113" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E113" s="1" t="b">
         <v>0</v>
@@ -3823,10 +3840,10 @@
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C114" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E114" s="1" t="b">
         <v>0</v>
@@ -3861,7 +3878,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3883,7 +3900,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3894,7 +3911,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3905,7 +3922,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3916,7 +3933,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3927,7 +3944,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3938,7 +3955,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3949,7 +3966,7 @@
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3960,7 +3977,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3980,7 +3997,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3991,7 +4008,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4007,63 +4024,63 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" t="s">
-        <v>202</v>
+        <v>179</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" t="s">
-        <v>204</v>
+        <v>180</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4093,7 +4110,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4109,7 +4126,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4207,7 +4224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -4220,7 +4237,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4248,19 +4265,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4277,10 +4294,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4297,10 +4314,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27260" windowHeight="15680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="27260" windowHeight="15680" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="251">
   <si>
     <t>pice_slice</t>
   </si>
@@ -767,6 +767,46 @@
   </si>
   <si>
     <t>3000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取每日奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择动物分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择第一张可爱的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从边角开始拼\n可以降低难度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,7 +814,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -785,6 +825,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -808,8 +866,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -821,7 +883,11 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1348,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -3825,16 +3891,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3872,6 +3938,46 @@
       </c>
       <c r="B6" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="27260" windowHeight="15680" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="27255" windowHeight="15675" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="level" sheetId="6" r:id="rId7"/>
     <sheet name="push" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -813,8 +813,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -884,11 +884,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1221,19 +1221,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
     <col min="3" max="4" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1411,21 +1411,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="11" style="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1650,18 +1650,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="61.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="61.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1829,18 +1829,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D114"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <v>100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="1">
-        <v>100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="1">
-        <v>100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="1">
-        <v>100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="1">
-        <v>100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="1">
-        <v>100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="1">
-        <v>100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="1">
-        <v>100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="1">
-        <v>100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="1">
-        <v>100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <v>100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="1">
-        <v>100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="1">
-        <v>100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="1">
-        <v>100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="1">
-        <v>100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="1">
-        <v>100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="F104" s="1">
-        <v>100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="F109" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="F110" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="F111" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="F113" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F114" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -3761,16 +3761,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="1" max="2" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3890,17 +3890,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3993,14 +3993,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="11" style="1"/>
   </cols>
@@ -4118,18 +4118,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="11" style="1"/>
     <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/excel/工作簿1.xlsx
+++ b/excel/工作簿1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="27255" windowHeight="15675" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="6360" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pice_slice" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="260">
   <si>
     <t>pice_slice</t>
   </si>
@@ -118,592 +118,708 @@
     <t>500</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>1000</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>pictype</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <t>亲近大自然</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>动物</t>
+  </si>
+  <si>
+    <t>小小动物萌翻天</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>建筑</t>
+  </si>
+  <si>
+    <t>人类辉煌的建筑奇迹</t>
+  </si>
+  <si>
+    <t>draing</t>
+  </si>
+  <si>
+    <t>名画</t>
+  </si>
+  <si>
+    <t>世界顶级名画</t>
+  </si>
+  <si>
+    <t>confucianism</t>
+  </si>
+  <si>
+    <t>马赛克艺术</t>
+  </si>
+  <si>
+    <t>欣赏不一样的艺术</t>
+  </si>
+  <si>
+    <t>sunrising</t>
+  </si>
+  <si>
+    <t>夏季日出</t>
+  </si>
+  <si>
+    <t>感受阳光</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>海滩风景</t>
+  </si>
+  <si>
+    <t>不一样的海风</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>名车</t>
+  </si>
+  <si>
+    <t>欣赏世界名车</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>色彩艺术</t>
+  </si>
+  <si>
+    <t>感受不同色彩带来的视觉盛宴</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>海底世界</t>
+  </si>
+  <si>
+    <t>蓝色大海，让人窒息</t>
+  </si>
+  <si>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>移轴摄影</t>
+  </si>
+  <si>
+    <t>模型般的感觉</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>stirng</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>unlock</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>对应pictype中的类型</t>
+  </si>
+  <si>
+    <t>文件名</t>
+  </si>
+  <si>
+    <t>显示的名字</t>
+  </si>
+  <si>
+    <t>默认解锁</t>
+  </si>
+  <si>
+    <t>解锁消费金币</t>
+  </si>
+  <si>
+    <t>anim1</t>
+  </si>
+  <si>
+    <t>anim2</t>
+  </si>
+  <si>
+    <t>anim3</t>
+  </si>
+  <si>
+    <t>anim4</t>
+  </si>
+  <si>
+    <t>anim5</t>
+  </si>
+  <si>
+    <t>anim6</t>
+  </si>
+  <si>
+    <t>anim7</t>
+  </si>
+  <si>
+    <t>anim8</t>
+  </si>
+  <si>
+    <t>anim9</t>
+  </si>
+  <si>
+    <t>anim10</t>
+  </si>
+  <si>
+    <t>na1</t>
+  </si>
+  <si>
+    <t>na2</t>
+  </si>
+  <si>
+    <t>na3</t>
+  </si>
+  <si>
+    <t>na4</t>
+  </si>
+  <si>
+    <t>na5</t>
+  </si>
+  <si>
+    <t>na6</t>
+  </si>
+  <si>
+    <t>na7</t>
+  </si>
+  <si>
+    <t>na8</t>
+  </si>
+  <si>
+    <t>na9</t>
+  </si>
+  <si>
+    <t>na10</t>
+  </si>
+  <si>
+    <t>bu1</t>
+  </si>
+  <si>
+    <t>bu2</t>
+  </si>
+  <si>
+    <t>bu3</t>
+  </si>
+  <si>
+    <t>bu4</t>
+  </si>
+  <si>
+    <t>bu5</t>
+  </si>
+  <si>
+    <t>bu6</t>
+  </si>
+  <si>
+    <t>bu7</t>
+  </si>
+  <si>
+    <t>bu8</t>
+  </si>
+  <si>
+    <t>bu9</t>
+  </si>
+  <si>
+    <t>bu10</t>
+  </si>
+  <si>
+    <t>pic1</t>
+  </si>
+  <si>
+    <t>pic2</t>
+  </si>
+  <si>
+    <t>pic3</t>
+  </si>
+  <si>
+    <t>pic4</t>
+  </si>
+  <si>
+    <t>pic5</t>
+  </si>
+  <si>
+    <t>pic6</t>
+  </si>
+  <si>
+    <t>pic7</t>
+  </si>
+  <si>
+    <t>pic8</t>
+  </si>
+  <si>
+    <t>pic9</t>
+  </si>
+  <si>
+    <t>pic10</t>
+  </si>
+  <si>
+    <t>msk1</t>
+  </si>
+  <si>
+    <t>msk2</t>
+  </si>
+  <si>
+    <t>msk3</t>
+  </si>
+  <si>
+    <t>msk4</t>
+  </si>
+  <si>
+    <t>msk5</t>
+  </si>
+  <si>
+    <t>msk6</t>
+  </si>
+  <si>
+    <t>msk7</t>
+  </si>
+  <si>
+    <t>msk8</t>
+  </si>
+  <si>
+    <t>msk9</t>
+  </si>
+  <si>
+    <t>msk10</t>
+  </si>
+  <si>
+    <t>sum1</t>
+  </si>
+  <si>
+    <t>sum2</t>
+  </si>
+  <si>
+    <t>sum3</t>
+  </si>
+  <si>
+    <t>sum4</t>
+  </si>
+  <si>
+    <t>sum5</t>
+  </si>
+  <si>
+    <t>sum6</t>
+  </si>
+  <si>
+    <t>sum7</t>
+  </si>
+  <si>
+    <t>sum8</t>
+  </si>
+  <si>
+    <t>sum9</t>
+  </si>
+  <si>
+    <t>sum10</t>
+  </si>
+  <si>
+    <t>bh1</t>
+  </si>
+  <si>
+    <t>bh2</t>
+  </si>
+  <si>
+    <t>bh3</t>
+  </si>
+  <si>
+    <t>bh4</t>
+  </si>
+  <si>
+    <t>bh5</t>
+  </si>
+  <si>
+    <t>bh6</t>
+  </si>
+  <si>
+    <t>bh7</t>
+  </si>
+  <si>
+    <t>bh8</t>
+  </si>
+  <si>
+    <t>bh9</t>
+  </si>
+  <si>
+    <t>bh10</t>
+  </si>
+  <si>
+    <t>car1</t>
+  </si>
+  <si>
+    <t>car2</t>
+  </si>
+  <si>
+    <t>car3</t>
+  </si>
+  <si>
+    <t>car4</t>
+  </si>
+  <si>
+    <t>car5</t>
+  </si>
+  <si>
+    <t>car6</t>
+  </si>
+  <si>
+    <t>car7</t>
+  </si>
+  <si>
+    <t>car8</t>
+  </si>
+  <si>
+    <t>car9</t>
+  </si>
+  <si>
+    <t>car10</t>
+  </si>
+  <si>
+    <t>co1</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>co3</t>
+  </si>
+  <si>
+    <t>co4</t>
+  </si>
+  <si>
+    <t>co5</t>
+  </si>
+  <si>
+    <t>co6</t>
+  </si>
+  <si>
+    <t>co7</t>
+  </si>
+  <si>
+    <t>co8</t>
+  </si>
+  <si>
+    <t>co9</t>
+  </si>
+  <si>
+    <t>co10</t>
+  </si>
+  <si>
+    <t>sea1</t>
+  </si>
+  <si>
+    <t>sea2</t>
+  </si>
+  <si>
+    <t>sea3</t>
+  </si>
+  <si>
+    <t>sea4</t>
+  </si>
+  <si>
+    <t>sea5</t>
+  </si>
+  <si>
+    <t>sea6</t>
+  </si>
+  <si>
+    <t>sea7</t>
+  </si>
+  <si>
+    <t>sea8</t>
+  </si>
+  <si>
+    <t>sea9</t>
+  </si>
+  <si>
+    <t>sea10</t>
+  </si>
+  <si>
+    <t>ys1</t>
+  </si>
+  <si>
+    <t>ys2</t>
+  </si>
+  <si>
+    <t>ys3</t>
+  </si>
+  <si>
+    <t>ys4</t>
+  </si>
+  <si>
+    <t>ys5</t>
+  </si>
+  <si>
+    <t>ys6</t>
+  </si>
+  <si>
+    <t>ys7</t>
+  </si>
+  <si>
+    <t>ys8</t>
+  </si>
+  <si>
+    <t>ys9</t>
+  </si>
+  <si>
+    <t>ys10</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>DAY 1</t>
+  </si>
+  <si>
+    <t>DAY 2</t>
+  </si>
+  <si>
+    <t>DAY 3</t>
+  </si>
+  <si>
+    <t>DAY 4</t>
+  </si>
+  <si>
+    <t>DAY 5</t>
+  </si>
+  <si>
+    <t>DAY 6</t>
+  </si>
+  <si>
+    <t>DAY 7</t>
+  </si>
+  <si>
+    <t>msglist</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>lack_of_gold</t>
+  </si>
+  <si>
+    <t>金币不足</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>评论即送40金币!</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>needexp</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>继续还未完成的拼图！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您有一幅拼图还待完成，快来接着完成吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快来接着完成您未完成的拼图吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格（rmb）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk传入名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk传入描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500金币</t>
+  </si>
+  <si>
+    <t>1000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取每日奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择动物分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择第一张可爱的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从边角开始拼\n可以降低难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>pictype</t>
-  </si>
-  <si>
-    <t>display_name</t>
-  </si>
-  <si>
-    <t>des</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>nature</t>
-  </si>
-  <si>
-    <t>自然</t>
-  </si>
-  <si>
-    <t>亲近大自然</t>
-  </si>
-  <si>
-    <t>animal</t>
-  </si>
-  <si>
-    <t>动物</t>
-  </si>
-  <si>
-    <t>小小动物萌翻天</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>建筑</t>
-  </si>
-  <si>
-    <t>人类辉煌的建筑奇迹</t>
-  </si>
-  <si>
-    <t>draing</t>
-  </si>
-  <si>
-    <t>名画</t>
-  </si>
-  <si>
-    <t>世界顶级名画</t>
-  </si>
-  <si>
-    <t>confucianism</t>
-  </si>
-  <si>
-    <t>马赛克艺术</t>
-  </si>
-  <si>
-    <t>欣赏不一样的艺术</t>
-  </si>
-  <si>
-    <t>sunrising</t>
-  </si>
-  <si>
-    <t>夏季日出</t>
-  </si>
-  <si>
-    <t>感受阳光</t>
-  </si>
-  <si>
-    <t>beach</t>
-  </si>
-  <si>
-    <t>海滩风景</t>
-  </si>
-  <si>
-    <t>不一样的海风</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>名车</t>
-  </si>
-  <si>
-    <t>欣赏世界名车</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>色彩艺术</t>
-  </si>
-  <si>
-    <t>感受不同色彩带来的视觉盛宴</t>
-  </si>
-  <si>
-    <t>sea</t>
-  </si>
-  <si>
-    <t>海底世界</t>
-  </si>
-  <si>
-    <t>蓝色大海，让人窒息</t>
-  </si>
-  <si>
-    <t>photograph</t>
-  </si>
-  <si>
-    <t>移轴摄影</t>
-  </si>
-  <si>
-    <t>模型般的感觉</t>
-  </si>
-  <si>
-    <t>pic</t>
-  </si>
-  <si>
-    <t>stirng</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>unlock</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>对应pictype中的类型</t>
-  </si>
-  <si>
-    <t>文件名</t>
-  </si>
-  <si>
-    <t>显示的名字</t>
-  </si>
-  <si>
-    <t>默认解锁</t>
-  </si>
-  <si>
-    <t>解锁消费金币</t>
-  </si>
-  <si>
-    <t>anim1</t>
-  </si>
-  <si>
-    <t>anim2</t>
-  </si>
-  <si>
-    <t>anim3</t>
-  </si>
-  <si>
-    <t>anim4</t>
-  </si>
-  <si>
-    <t>anim5</t>
-  </si>
-  <si>
-    <t>anim6</t>
-  </si>
-  <si>
-    <t>anim7</t>
-  </si>
-  <si>
-    <t>anim8</t>
-  </si>
-  <si>
-    <t>anim9</t>
-  </si>
-  <si>
-    <t>anim10</t>
-  </si>
-  <si>
-    <t>na1</t>
-  </si>
-  <si>
-    <t>na2</t>
-  </si>
-  <si>
-    <t>na3</t>
-  </si>
-  <si>
-    <t>na4</t>
-  </si>
-  <si>
-    <t>na5</t>
-  </si>
-  <si>
-    <t>na6</t>
-  </si>
-  <si>
-    <t>na7</t>
-  </si>
-  <si>
-    <t>na8</t>
-  </si>
-  <si>
-    <t>na9</t>
-  </si>
-  <si>
-    <t>na10</t>
-  </si>
-  <si>
-    <t>bu1</t>
-  </si>
-  <si>
-    <t>bu2</t>
-  </si>
-  <si>
-    <t>bu3</t>
-  </si>
-  <si>
-    <t>bu4</t>
-  </si>
-  <si>
-    <t>bu5</t>
-  </si>
-  <si>
-    <t>bu6</t>
-  </si>
-  <si>
-    <t>bu7</t>
-  </si>
-  <si>
-    <t>bu8</t>
-  </si>
-  <si>
-    <t>bu9</t>
-  </si>
-  <si>
-    <t>bu10</t>
-  </si>
-  <si>
-    <t>pic1</t>
-  </si>
-  <si>
-    <t>pic2</t>
-  </si>
-  <si>
-    <t>pic3</t>
-  </si>
-  <si>
-    <t>pic4</t>
-  </si>
-  <si>
-    <t>pic5</t>
-  </si>
-  <si>
-    <t>pic6</t>
-  </si>
-  <si>
-    <t>pic7</t>
-  </si>
-  <si>
-    <t>pic8</t>
-  </si>
-  <si>
-    <t>pic9</t>
-  </si>
-  <si>
-    <t>pic10</t>
-  </si>
-  <si>
-    <t>msk1</t>
-  </si>
-  <si>
-    <t>msk2</t>
-  </si>
-  <si>
-    <t>msk3</t>
-  </si>
-  <si>
-    <t>msk4</t>
-  </si>
-  <si>
-    <t>msk5</t>
-  </si>
-  <si>
-    <t>msk6</t>
-  </si>
-  <si>
-    <t>msk7</t>
-  </si>
-  <si>
-    <t>msk8</t>
-  </si>
-  <si>
-    <t>msk9</t>
-  </si>
-  <si>
-    <t>msk10</t>
-  </si>
-  <si>
-    <t>sum1</t>
-  </si>
-  <si>
-    <t>sum2</t>
-  </si>
-  <si>
-    <t>sum3</t>
-  </si>
-  <si>
-    <t>sum4</t>
-  </si>
-  <si>
-    <t>sum5</t>
-  </si>
-  <si>
-    <t>sum6</t>
-  </si>
-  <si>
-    <t>sum7</t>
-  </si>
-  <si>
-    <t>sum8</t>
-  </si>
-  <si>
-    <t>sum9</t>
-  </si>
-  <si>
-    <t>sum10</t>
-  </si>
-  <si>
-    <t>bh1</t>
-  </si>
-  <si>
-    <t>bh2</t>
-  </si>
-  <si>
-    <t>bh3</t>
-  </si>
-  <si>
-    <t>bh4</t>
-  </si>
-  <si>
-    <t>bh5</t>
-  </si>
-  <si>
-    <t>bh6</t>
-  </si>
-  <si>
-    <t>bh7</t>
-  </si>
-  <si>
-    <t>bh8</t>
-  </si>
-  <si>
-    <t>bh9</t>
-  </si>
-  <si>
-    <t>bh10</t>
-  </si>
-  <si>
-    <t>car1</t>
-  </si>
-  <si>
-    <t>car2</t>
-  </si>
-  <si>
-    <t>car3</t>
-  </si>
-  <si>
-    <t>car4</t>
-  </si>
-  <si>
-    <t>car5</t>
-  </si>
-  <si>
-    <t>car6</t>
-  </si>
-  <si>
-    <t>car7</t>
-  </si>
-  <si>
-    <t>car8</t>
-  </si>
-  <si>
-    <t>car9</t>
-  </si>
-  <si>
-    <t>car10</t>
-  </si>
-  <si>
-    <t>co1</t>
-  </si>
-  <si>
-    <t>co2</t>
-  </si>
-  <si>
-    <t>co3</t>
-  </si>
-  <si>
-    <t>co4</t>
-  </si>
-  <si>
-    <t>co5</t>
-  </si>
-  <si>
-    <t>co6</t>
-  </si>
-  <si>
-    <t>co7</t>
-  </si>
-  <si>
-    <t>co8</t>
-  </si>
-  <si>
-    <t>co9</t>
-  </si>
-  <si>
-    <t>co10</t>
-  </si>
-  <si>
-    <t>sea1</t>
-  </si>
-  <si>
-    <t>sea2</t>
-  </si>
-  <si>
-    <t>sea3</t>
-  </si>
-  <si>
-    <t>sea4</t>
-  </si>
-  <si>
-    <t>sea5</t>
-  </si>
-  <si>
-    <t>sea6</t>
-  </si>
-  <si>
-    <t>sea7</t>
-  </si>
-  <si>
-    <t>sea8</t>
-  </si>
-  <si>
-    <t>sea9</t>
-  </si>
-  <si>
-    <t>sea10</t>
-  </si>
-  <si>
-    <t>ys1</t>
-  </si>
-  <si>
-    <t>ys2</t>
-  </si>
-  <si>
-    <t>ys3</t>
-  </si>
-  <si>
-    <t>ys4</t>
-  </si>
-  <si>
-    <t>ys5</t>
-  </si>
-  <si>
-    <t>ys6</t>
-  </si>
-  <si>
-    <t>ys7</t>
-  </si>
-  <si>
-    <t>ys8</t>
-  </si>
-  <si>
-    <t>ys9</t>
-  </si>
-  <si>
-    <t>ys10</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>DAY 1</t>
-  </si>
-  <si>
-    <t>DAY 2</t>
-  </si>
-  <si>
-    <t>DAY 3</t>
-  </si>
-  <si>
-    <t>DAY 4</t>
-  </si>
-  <si>
-    <t>DAY 5</t>
-  </si>
-  <si>
-    <t>DAY 6</t>
-  </si>
-  <si>
-    <t>DAY 7</t>
-  </si>
-  <si>
-    <t>msglist</t>
-  </si>
-  <si>
-    <t>cn</t>
-  </si>
-  <si>
-    <t>lack_of_gold</t>
-  </si>
-  <si>
-    <t>金币不足</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>评论即送40金币!</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>needexp</t>
-  </si>
-  <si>
-    <t>push</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>继续还未完成的拼图！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您有一幅拼图还待完成，快来接着完成吧！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快来接着完成您未完成的拼图吧！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格（rmb）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -711,110 +827,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdk传入名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdk传入描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500金币</t>
-  </si>
-  <si>
-    <t>1000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取每日奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择动物分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择第一张可爱的图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从边角开始拼\n可以降低难度</t>
+    <t>func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func_des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMOVE_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除广告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -873,7 +918,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -882,13 +927,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1221,19 +1272,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="26.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1411,29 +1462,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="11" style="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1443,7 +1494,7 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E2" t="s">
@@ -1453,13 +1504,19 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1469,7 +1526,7 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
@@ -1479,21 +1536,27 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>224</v>
+      <c r="D4" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1502,140 +1565,169 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
+        <v>221</v>
+      </c>
+      <c r="I4" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I5" t="s">
+        <v>258</v>
+      </c>
+      <c r="J5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
+      <c r="D6" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="H7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>234</v>
+      <c r="G8" t="s">
+        <v>224</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="G9" t="s">
-        <v>235</v>
-      </c>
-      <c r="H9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="3">
-        <v>12</v>
+        <v>242</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="H10" t="s">
-        <v>236</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="G11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H11" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -1650,23 +1742,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="61.625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1685,136 +1777,136 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1829,24 +1921,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1857,13 +1949,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -1877,33 +1969,33 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1911,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>1</v>
@@ -1925,10 +2017,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
@@ -1942,10 +2034,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>0</v>
@@ -1959,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="b">
         <v>0</v>
@@ -1976,10 +2068,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="b">
         <v>0</v>
@@ -1993,10 +2085,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1" t="b">
         <v>0</v>
@@ -2010,10 +2102,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="b">
         <v>0</v>
@@ -2027,10 +2119,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1" t="b">
         <v>0</v>
@@ -2044,10 +2136,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="b">
         <v>0</v>
@@ -2061,10 +2153,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1" t="b">
         <v>0</v>
@@ -2078,10 +2170,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1" t="b">
         <v>1</v>
@@ -2092,10 +2184,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1" t="b">
         <v>0</v>
@@ -2109,10 +2201,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>0</v>
@@ -2126,10 +2218,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1" t="b">
         <v>0</v>
@@ -2143,10 +2235,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1" t="b">
         <v>0</v>
@@ -2160,10 +2252,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1" t="b">
         <v>0</v>
@@ -2177,10 +2269,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E21" s="1" t="b">
         <v>0</v>
@@ -2194,10 +2286,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E22" s="1" t="b">
         <v>0</v>
@@ -2211,10 +2303,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E23" s="1" t="b">
         <v>0</v>
@@ -2228,10 +2320,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E24" s="1" t="b">
         <v>0</v>
@@ -2245,16 +2337,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2262,16 +2351,16 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2279,16 +2368,16 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2296,16 +2385,16 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2313,16 +2402,16 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2330,16 +2419,16 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E30" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2347,16 +2436,16 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E31" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2364,16 +2453,16 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E32" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2381,16 +2470,16 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2398,16 +2487,16 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2415,16 +2504,13 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E35" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2432,16 +2518,16 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E36" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2449,16 +2535,16 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E37" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2466,16 +2552,16 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E38" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2483,16 +2569,16 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E39" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2500,16 +2586,16 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2517,16 +2603,16 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E41" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2534,16 +2620,16 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E42" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2551,16 +2637,16 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E43" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2568,16 +2654,16 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E44" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2585,10 +2671,10 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E45" s="1" t="b">
         <v>1</v>
@@ -2599,16 +2685,16 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E46" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2616,16 +2702,16 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2633,16 +2719,16 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2650,16 +2736,16 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2667,16 +2753,16 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2684,16 +2770,16 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E51" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2701,16 +2787,16 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E52" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2718,16 +2804,16 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E53" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2735,16 +2821,16 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2752,10 +2838,10 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E55" s="1" t="b">
         <v>1</v>
@@ -2766,16 +2852,16 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E56" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2783,16 +2869,16 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2800,16 +2886,16 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E58" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2817,16 +2903,16 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E59" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2834,16 +2920,16 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2851,16 +2937,16 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2868,16 +2954,16 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E62" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2885,16 +2971,16 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E63" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2902,16 +2988,16 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E64" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2919,10 +3005,10 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E65" s="1" t="b">
         <v>1</v>
@@ -2933,16 +3019,16 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E66" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2950,16 +3036,16 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F67" s="1">
-        <v>600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2967,16 +3053,16 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E68" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2984,16 +3070,16 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E69" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3001,16 +3087,16 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E70" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F70" s="1">
-        <v>600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3018,16 +3104,16 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E71" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3035,16 +3121,16 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E72" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <v>600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3052,16 +3138,16 @@
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E73" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <v>600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3069,16 +3155,16 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E74" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F74" s="1">
-        <v>600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3086,10 +3172,10 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E75" s="1" t="b">
         <v>1</v>
@@ -3100,16 +3186,16 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E76" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>700</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3117,16 +3203,16 @@
         <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E77" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>700</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3134,16 +3220,16 @@
         <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E78" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>700</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3151,16 +3237,16 @@
         <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E79" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>700</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3168,16 +3254,16 @@
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E80" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <v>700</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3185,16 +3271,16 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E81" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>700</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3202,16 +3288,16 @@
         <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E82" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F82" s="1">
-        <v>700</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3219,16 +3305,16 @@
         <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <v>700</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3236,16 +3322,16 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <v>700</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3253,10 +3339,10 @@
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E85" s="1" t="b">
         <v>1</v>
@@ -3267,16 +3353,16 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3284,16 +3370,16 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F87" s="1">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3301,16 +3387,16 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E88" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F88" s="1">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3318,16 +3404,16 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E89" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F89" s="1">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3335,16 +3421,16 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3352,16 +3438,16 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F91" s="1">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3369,16 +3455,16 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F92" s="1">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3386,16 +3472,16 @@
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F93" s="1">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3403,16 +3489,16 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E94" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F94" s="1">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3420,10 +3506,10 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C95" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E95" s="1" t="b">
         <v>1</v>
@@ -3434,16 +3520,16 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C96" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E96" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F96" s="1">
-        <v>900</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3451,16 +3537,16 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C97" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E97" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F97" s="1">
-        <v>900</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3468,16 +3554,16 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C98" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E98" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <v>900</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3485,16 +3571,16 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C99" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E99" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F99" s="1">
-        <v>900</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3502,16 +3588,16 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C100" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E100" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F100" s="1">
-        <v>900</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3519,16 +3605,16 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C101" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E101" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F101" s="1">
-        <v>900</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3536,16 +3622,16 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C102" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E102" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F102" s="1">
-        <v>900</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3553,16 +3639,16 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C103" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E103" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F103" s="1">
-        <v>900</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3570,16 +3656,16 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C104" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E104" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F104" s="1">
-        <v>900</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3587,10 +3673,10 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E105" s="1" t="b">
         <v>1</v>
@@ -3601,16 +3687,16 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C106" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E106" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F106" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3618,16 +3704,16 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C107" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E107" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F107" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3635,16 +3721,16 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E108" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F108" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3652,16 +3738,16 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C109" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E109" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F109" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3669,16 +3755,16 @@
         <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C110" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E110" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F110" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3686,16 +3772,16 @@
         <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C111" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E111" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F111" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3703,16 +3789,16 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C112" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E112" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F112" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3720,16 +3806,16 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C113" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E113" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F113" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3737,16 +3823,16 @@
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C114" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E114" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F114" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -3761,21 +3847,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3797,7 +3883,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3808,7 +3894,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3819,7 +3905,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3830,7 +3916,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3841,7 +3927,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3852,7 +3938,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3863,7 +3949,7 @@
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3874,7 +3960,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3890,22 +3976,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3921,63 +4007,63 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3993,21 +4079,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4023,7 +4109,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4118,23 +4204,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="4" width="11" style="1"/>
     <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4162,19 +4248,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4191,10 +4277,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4211,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
